--- a/app/datasets/traffic_accident_reports_collection.xlsx
+++ b/app/datasets/traffic_accident_reports_collection.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MATIAS\Documents\Proyectos\DS-Projects\VSprojects\reportingAgent\app\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{460257C4-4A89-4498-8264-63CB67F16ACE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4811C554-C04C-4D15-A680-B642491589BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="API_TRAFFIC_25082025000637" sheetId="2" r:id="rId1"/>
+    <sheet name="TRAFFIC_ACCIDENT" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -17550,7 +17550,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -17558,11 +17558,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -17945,7 +17942,7 @@
         <f>LEN(I2)</f>
         <v>401</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="1" t="s">
         <v>5207</v>
       </c>
     </row>
@@ -17981,7 +17978,7 @@
         <f t="shared" ref="J3:J66" si="0">LEN(I3)</f>
         <v>332</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="1" t="s">
         <v>5208</v>
       </c>
     </row>
@@ -18017,7 +18014,7 @@
         <f t="shared" si="0"/>
         <v>365</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="K4" s="1" t="s">
         <v>5209</v>
       </c>
     </row>
@@ -18053,7 +18050,7 @@
         <f t="shared" si="0"/>
         <v>317</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="K5" s="1" t="s">
         <v>5210</v>
       </c>
     </row>
@@ -18089,7 +18086,7 @@
         <f t="shared" si="0"/>
         <v>286</v>
       </c>
-      <c r="K6" s="4" t="s">
+      <c r="K6" s="1" t="s">
         <v>5211</v>
       </c>
     </row>
@@ -18125,7 +18122,7 @@
         <f t="shared" si="0"/>
         <v>293</v>
       </c>
-      <c r="K7" s="4" t="s">
+      <c r="K7" s="1" t="s">
         <v>5212</v>
       </c>
     </row>
@@ -18161,7 +18158,7 @@
         <f t="shared" si="0"/>
         <v>278</v>
       </c>
-      <c r="K8" s="4" t="s">
+      <c r="K8" s="1" t="s">
         <v>5213</v>
       </c>
     </row>
@@ -18197,7 +18194,7 @@
         <f t="shared" si="0"/>
         <v>265</v>
       </c>
-      <c r="K9" s="4" t="s">
+      <c r="K9" s="1" t="s">
         <v>5214</v>
       </c>
     </row>
@@ -18233,7 +18230,7 @@
         <f t="shared" si="0"/>
         <v>273</v>
       </c>
-      <c r="K10" s="4" t="s">
+      <c r="K10" s="1" t="s">
         <v>5215</v>
       </c>
     </row>
@@ -18269,7 +18266,7 @@
         <f t="shared" si="0"/>
         <v>261</v>
       </c>
-      <c r="K11" s="4" t="s">
+      <c r="K11" s="1" t="s">
         <v>5216</v>
       </c>
     </row>
@@ -18305,7 +18302,7 @@
         <f t="shared" si="0"/>
         <v>346</v>
       </c>
-      <c r="K12" s="4" t="s">
+      <c r="K12" s="1" t="s">
         <v>5217</v>
       </c>
     </row>
@@ -18341,7 +18338,7 @@
         <f t="shared" si="0"/>
         <v>350</v>
       </c>
-      <c r="K13" s="4" t="s">
+      <c r="K13" s="1" t="s">
         <v>5218</v>
       </c>
     </row>
@@ -18377,7 +18374,7 @@
         <f t="shared" si="0"/>
         <v>314</v>
       </c>
-      <c r="K14" s="4" t="s">
+      <c r="K14" s="1" t="s">
         <v>5219</v>
       </c>
     </row>
@@ -18413,7 +18410,7 @@
         <f t="shared" si="0"/>
         <v>281</v>
       </c>
-      <c r="K15" s="4" t="s">
+      <c r="K15" s="1" t="s">
         <v>5220</v>
       </c>
     </row>
@@ -18449,7 +18446,7 @@
         <f t="shared" si="0"/>
         <v>358</v>
       </c>
-      <c r="K16" s="4" t="s">
+      <c r="K16" s="1" t="s">
         <v>5221</v>
       </c>
     </row>
@@ -18485,7 +18482,7 @@
         <f t="shared" si="0"/>
         <v>292</v>
       </c>
-      <c r="K17" s="4" t="s">
+      <c r="K17" s="1" t="s">
         <v>5222</v>
       </c>
     </row>
@@ -18521,7 +18518,7 @@
         <f t="shared" si="0"/>
         <v>320</v>
       </c>
-      <c r="K18" s="4" t="s">
+      <c r="K18" s="1" t="s">
         <v>5223</v>
       </c>
     </row>
@@ -18557,7 +18554,7 @@
         <f t="shared" si="0"/>
         <v>305</v>
       </c>
-      <c r="K19" s="4" t="s">
+      <c r="K19" s="1" t="s">
         <v>5224</v>
       </c>
     </row>
@@ -18593,7 +18590,7 @@
         <f t="shared" si="0"/>
         <v>275</v>
       </c>
-      <c r="K20" s="4" t="s">
+      <c r="K20" s="1" t="s">
         <v>5225</v>
       </c>
     </row>
@@ -18629,7 +18626,7 @@
         <f t="shared" si="0"/>
         <v>321</v>
       </c>
-      <c r="K21" s="4" t="s">
+      <c r="K21" s="1" t="s">
         <v>5226</v>
       </c>
     </row>
@@ -18665,7 +18662,7 @@
         <f t="shared" si="0"/>
         <v>380</v>
       </c>
-      <c r="K22" s="4" t="s">
+      <c r="K22" s="1" t="s">
         <v>5227</v>
       </c>
     </row>
@@ -18701,7 +18698,7 @@
         <f t="shared" si="0"/>
         <v>376</v>
       </c>
-      <c r="K23" s="4" t="s">
+      <c r="K23" s="1" t="s">
         <v>5228</v>
       </c>
     </row>
@@ -18737,7 +18734,7 @@
         <f t="shared" si="0"/>
         <v>324</v>
       </c>
-      <c r="K24" s="4" t="s">
+      <c r="K24" s="1" t="s">
         <v>5229</v>
       </c>
     </row>
@@ -18773,7 +18770,7 @@
         <f t="shared" si="0"/>
         <v>311</v>
       </c>
-      <c r="K25" s="4" t="s">
+      <c r="K25" s="1" t="s">
         <v>5230</v>
       </c>
     </row>
@@ -18809,7 +18806,7 @@
         <f t="shared" si="0"/>
         <v>329</v>
       </c>
-      <c r="K26" s="4" t="s">
+      <c r="K26" s="1" t="s">
         <v>5231</v>
       </c>
     </row>
@@ -18845,7 +18842,7 @@
         <f t="shared" si="0"/>
         <v>286</v>
       </c>
-      <c r="K27" s="4" t="s">
+      <c r="K27" s="1" t="s">
         <v>5232</v>
       </c>
     </row>
@@ -18881,7 +18878,7 @@
         <f t="shared" si="0"/>
         <v>288</v>
       </c>
-      <c r="K28" s="4" t="s">
+      <c r="K28" s="1" t="s">
         <v>5233</v>
       </c>
     </row>
@@ -18917,7 +18914,7 @@
         <f t="shared" si="0"/>
         <v>296</v>
       </c>
-      <c r="K29" s="4" t="s">
+      <c r="K29" s="1" t="s">
         <v>5234</v>
       </c>
     </row>
@@ -18953,7 +18950,7 @@
         <f t="shared" si="0"/>
         <v>298</v>
       </c>
-      <c r="K30" s="4" t="s">
+      <c r="K30" s="1" t="s">
         <v>5235</v>
       </c>
     </row>
@@ -18989,7 +18986,7 @@
         <f t="shared" si="0"/>
         <v>282</v>
       </c>
-      <c r="K31" s="4" t="s">
+      <c r="K31" s="1" t="s">
         <v>5236</v>
       </c>
     </row>
@@ -19025,7 +19022,7 @@
         <f t="shared" si="0"/>
         <v>354</v>
       </c>
-      <c r="K32" s="4" t="s">
+      <c r="K32" s="1" t="s">
         <v>5237</v>
       </c>
     </row>
@@ -19061,7 +19058,7 @@
         <f t="shared" si="0"/>
         <v>342</v>
       </c>
-      <c r="K33" s="4" t="s">
+      <c r="K33" s="1" t="s">
         <v>5238</v>
       </c>
     </row>
@@ -19097,7 +19094,7 @@
         <f t="shared" si="0"/>
         <v>333</v>
       </c>
-      <c r="K34" s="4" t="s">
+      <c r="K34" s="1" t="s">
         <v>5239</v>
       </c>
     </row>
@@ -19133,7 +19130,7 @@
         <f t="shared" si="0"/>
         <v>344</v>
       </c>
-      <c r="K35" s="4" t="s">
+      <c r="K35" s="1" t="s">
         <v>5240</v>
       </c>
     </row>
@@ -19169,7 +19166,7 @@
         <f t="shared" si="0"/>
         <v>352</v>
       </c>
-      <c r="K36" s="4" t="s">
+      <c r="K36" s="1" t="s">
         <v>5241</v>
       </c>
     </row>
@@ -19205,7 +19202,7 @@
         <f t="shared" si="0"/>
         <v>293</v>
       </c>
-      <c r="K37" s="4" t="s">
+      <c r="K37" s="1" t="s">
         <v>5242</v>
       </c>
     </row>
@@ -19241,7 +19238,7 @@
         <f t="shared" si="0"/>
         <v>284</v>
       </c>
-      <c r="K38" s="4" t="s">
+      <c r="K38" s="1" t="s">
         <v>5243</v>
       </c>
     </row>
@@ -19277,7 +19274,7 @@
         <f t="shared" si="0"/>
         <v>322</v>
       </c>
-      <c r="K39" s="4" t="s">
+      <c r="K39" s="1" t="s">
         <v>5244</v>
       </c>
     </row>
@@ -19313,7 +19310,7 @@
         <f t="shared" si="0"/>
         <v>297</v>
       </c>
-      <c r="K40" s="4" t="s">
+      <c r="K40" s="1" t="s">
         <v>5245</v>
       </c>
     </row>
@@ -19349,7 +19346,7 @@
         <f t="shared" si="0"/>
         <v>331</v>
       </c>
-      <c r="K41" s="4" t="s">
+      <c r="K41" s="1" t="s">
         <v>5246</v>
       </c>
     </row>
@@ -19385,7 +19382,7 @@
         <f t="shared" si="0"/>
         <v>398</v>
       </c>
-      <c r="K42" s="4" t="s">
+      <c r="K42" s="1" t="s">
         <v>5247</v>
       </c>
     </row>
@@ -19421,7 +19418,7 @@
         <f t="shared" si="0"/>
         <v>369</v>
       </c>
-      <c r="K43" s="4" t="s">
+      <c r="K43" s="1" t="s">
         <v>5248</v>
       </c>
     </row>
@@ -19457,7 +19454,7 @@
         <f t="shared" si="0"/>
         <v>367</v>
       </c>
-      <c r="K44" s="4" t="s">
+      <c r="K44" s="1" t="s">
         <v>5249</v>
       </c>
     </row>
@@ -19493,7 +19490,7 @@
         <f t="shared" si="0"/>
         <v>319</v>
       </c>
-      <c r="K45" s="4" t="s">
+      <c r="K45" s="1" t="s">
         <v>5250</v>
       </c>
     </row>
@@ -19529,7 +19526,7 @@
         <f t="shared" si="0"/>
         <v>313</v>
       </c>
-      <c r="K46" s="4" t="s">
+      <c r="K46" s="1" t="s">
         <v>5251</v>
       </c>
     </row>
@@ -19565,7 +19562,7 @@
         <f t="shared" si="0"/>
         <v>332</v>
       </c>
-      <c r="K47" s="4" t="s">
+      <c r="K47" s="1" t="s">
         <v>5252</v>
       </c>
     </row>
@@ -19601,7 +19598,7 @@
         <f t="shared" si="0"/>
         <v>323</v>
       </c>
-      <c r="K48" s="4" t="s">
+      <c r="K48" s="1" t="s">
         <v>5253</v>
       </c>
     </row>
@@ -19637,7 +19634,7 @@
         <f t="shared" si="0"/>
         <v>292</v>
       </c>
-      <c r="K49" s="4" t="s">
+      <c r="K49" s="1" t="s">
         <v>5254</v>
       </c>
     </row>
@@ -19673,7 +19670,7 @@
         <f t="shared" si="0"/>
         <v>354</v>
       </c>
-      <c r="K50" s="4" t="s">
+      <c r="K50" s="1" t="s">
         <v>5255</v>
       </c>
     </row>
@@ -19709,7 +19706,7 @@
         <f t="shared" si="0"/>
         <v>323</v>
       </c>
-      <c r="K51" s="4" t="s">
+      <c r="K51" s="1" t="s">
         <v>5256</v>
       </c>
     </row>
@@ -19745,7 +19742,7 @@
         <f t="shared" si="0"/>
         <v>368</v>
       </c>
-      <c r="K52" s="4" t="s">
+      <c r="K52" s="1" t="s">
         <v>5257</v>
       </c>
     </row>
@@ -19781,7 +19778,7 @@
         <f t="shared" si="0"/>
         <v>363</v>
       </c>
-      <c r="K53" s="4" t="s">
+      <c r="K53" s="1" t="s">
         <v>5258</v>
       </c>
     </row>
@@ -19817,7 +19814,7 @@
         <f t="shared" si="0"/>
         <v>333</v>
       </c>
-      <c r="K54" s="4" t="s">
+      <c r="K54" s="1" t="s">
         <v>5259</v>
       </c>
     </row>
@@ -19853,7 +19850,7 @@
         <f t="shared" si="0"/>
         <v>338</v>
       </c>
-      <c r="K55" s="4" t="s">
+      <c r="K55" s="1" t="s">
         <v>5260</v>
       </c>
     </row>
@@ -19889,7 +19886,7 @@
         <f t="shared" si="0"/>
         <v>337</v>
       </c>
-      <c r="K56" s="4" t="s">
+      <c r="K56" s="1" t="s">
         <v>5261</v>
       </c>
     </row>
@@ -19925,7 +19922,7 @@
         <f t="shared" si="0"/>
         <v>330</v>
       </c>
-      <c r="K57" s="4" t="s">
+      <c r="K57" s="1" t="s">
         <v>5262</v>
       </c>
     </row>
@@ -19961,7 +19958,7 @@
         <f t="shared" si="0"/>
         <v>306</v>
       </c>
-      <c r="K58" s="4" t="s">
+      <c r="K58" s="1" t="s">
         <v>5263</v>
       </c>
     </row>
@@ -19997,7 +19994,7 @@
         <f t="shared" si="0"/>
         <v>321</v>
       </c>
-      <c r="K59" s="4" t="s">
+      <c r="K59" s="1" t="s">
         <v>5264</v>
       </c>
     </row>
@@ -20033,7 +20030,7 @@
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
-      <c r="K60" s="4" t="s">
+      <c r="K60" s="1" t="s">
         <v>5265</v>
       </c>
     </row>
@@ -20069,7 +20066,7 @@
         <f t="shared" si="0"/>
         <v>296</v>
       </c>
-      <c r="K61" s="4" t="s">
+      <c r="K61" s="1" t="s">
         <v>5266</v>
       </c>
     </row>
@@ -20105,7 +20102,7 @@
         <f t="shared" si="0"/>
         <v>382</v>
       </c>
-      <c r="K62" s="4" t="s">
+      <c r="K62" s="1" t="s">
         <v>5267</v>
       </c>
     </row>
@@ -20141,7 +20138,7 @@
         <f t="shared" si="0"/>
         <v>324</v>
       </c>
-      <c r="K63" s="4" t="s">
+      <c r="K63" s="1" t="s">
         <v>5268</v>
       </c>
     </row>
@@ -20177,7 +20174,7 @@
         <f t="shared" si="0"/>
         <v>306</v>
       </c>
-      <c r="K64" s="4" t="s">
+      <c r="K64" s="1" t="s">
         <v>5269</v>
       </c>
     </row>
@@ -20213,7 +20210,7 @@
         <f t="shared" si="0"/>
         <v>283</v>
       </c>
-      <c r="K65" s="4" t="s">
+      <c r="K65" s="1" t="s">
         <v>5270</v>
       </c>
     </row>
@@ -20249,7 +20246,7 @@
         <f t="shared" si="0"/>
         <v>292</v>
       </c>
-      <c r="K66" s="4" t="s">
+      <c r="K66" s="1" t="s">
         <v>5271</v>
       </c>
     </row>
@@ -20285,7 +20282,7 @@
         <f t="shared" ref="J67:J130" si="1">LEN(I67)</f>
         <v>271</v>
       </c>
-      <c r="K67" s="4" t="s">
+      <c r="K67" s="1" t="s">
         <v>5272</v>
       </c>
     </row>
@@ -20321,7 +20318,7 @@
         <f t="shared" si="1"/>
         <v>264</v>
       </c>
-      <c r="K68" s="4" t="s">
+      <c r="K68" s="1" t="s">
         <v>5273</v>
       </c>
     </row>
@@ -20357,7 +20354,7 @@
         <f t="shared" si="1"/>
         <v>256</v>
       </c>
-      <c r="K69" s="4" t="s">
+      <c r="K69" s="1" t="s">
         <v>5274</v>
       </c>
     </row>
@@ -20393,7 +20390,7 @@
         <f t="shared" si="1"/>
         <v>262</v>
       </c>
-      <c r="K70" s="4" t="s">
+      <c r="K70" s="1" t="s">
         <v>5275</v>
       </c>
     </row>
@@ -20429,7 +20426,7 @@
         <f t="shared" si="1"/>
         <v>273</v>
       </c>
-      <c r="K71" s="4" t="s">
+      <c r="K71" s="1" t="s">
         <v>5276</v>
       </c>
     </row>
@@ -20465,7 +20462,7 @@
         <f t="shared" si="1"/>
         <v>315</v>
       </c>
-      <c r="K72" s="4" t="s">
+      <c r="K72" s="1" t="s">
         <v>5277</v>
       </c>
     </row>
@@ -20501,7 +20498,7 @@
         <f t="shared" si="1"/>
         <v>270</v>
       </c>
-      <c r="K73" s="4" t="s">
+      <c r="K73" s="1" t="s">
         <v>5278</v>
       </c>
     </row>
@@ -20537,7 +20534,7 @@
         <f t="shared" si="1"/>
         <v>284</v>
       </c>
-      <c r="K74" s="4" t="s">
+      <c r="K74" s="1" t="s">
         <v>5279</v>
       </c>
     </row>
@@ -20573,7 +20570,7 @@
         <f t="shared" si="1"/>
         <v>308</v>
       </c>
-      <c r="K75" s="4" t="s">
+      <c r="K75" s="1" t="s">
         <v>5280</v>
       </c>
     </row>
@@ -20609,7 +20606,7 @@
         <f t="shared" si="1"/>
         <v>284</v>
       </c>
-      <c r="K76" s="4" t="s">
+      <c r="K76" s="1" t="s">
         <v>5281</v>
       </c>
     </row>
@@ -20645,7 +20642,7 @@
         <f t="shared" si="1"/>
         <v>268</v>
       </c>
-      <c r="K77" s="4" t="s">
+      <c r="K77" s="1" t="s">
         <v>5282</v>
       </c>
     </row>
@@ -20681,7 +20678,7 @@
         <f t="shared" si="1"/>
         <v>267</v>
       </c>
-      <c r="K78" s="4" t="s">
+      <c r="K78" s="1" t="s">
         <v>5283</v>
       </c>
     </row>
@@ -20717,7 +20714,7 @@
         <f t="shared" si="1"/>
         <v>262</v>
       </c>
-      <c r="K79" s="4" t="s">
+      <c r="K79" s="1" t="s">
         <v>5284</v>
       </c>
     </row>
@@ -20753,7 +20750,7 @@
         <f t="shared" si="1"/>
         <v>289</v>
       </c>
-      <c r="K80" s="4" t="s">
+      <c r="K80" s="1" t="s">
         <v>5285</v>
       </c>
     </row>
@@ -20789,7 +20786,7 @@
         <f t="shared" si="1"/>
         <v>271</v>
       </c>
-      <c r="K81" s="4" t="s">
+      <c r="K81" s="1" t="s">
         <v>5286</v>
       </c>
     </row>
@@ -20825,7 +20822,7 @@
         <f t="shared" si="1"/>
         <v>413</v>
       </c>
-      <c r="K82" s="4" t="s">
+      <c r="K82" s="1" t="s">
         <v>5287</v>
       </c>
     </row>
@@ -20861,7 +20858,7 @@
         <f t="shared" si="1"/>
         <v>387</v>
       </c>
-      <c r="K83" s="4" t="s">
+      <c r="K83" s="1" t="s">
         <v>5288</v>
       </c>
     </row>
@@ -20897,7 +20894,7 @@
         <f t="shared" si="1"/>
         <v>397</v>
       </c>
-      <c r="K84" s="4" t="s">
+      <c r="K84" s="1" t="s">
         <v>5289</v>
       </c>
     </row>
@@ -20933,7 +20930,7 @@
         <f t="shared" si="1"/>
         <v>336</v>
       </c>
-      <c r="K85" s="4" t="s">
+      <c r="K85" s="1" t="s">
         <v>5290</v>
       </c>
     </row>
@@ -20969,7 +20966,7 @@
         <f t="shared" si="1"/>
         <v>380</v>
       </c>
-      <c r="K86" s="4" t="s">
+      <c r="K86" s="1" t="s">
         <v>5291</v>
       </c>
     </row>
@@ -21005,7 +21002,7 @@
         <f t="shared" si="1"/>
         <v>327</v>
       </c>
-      <c r="K87" s="4" t="s">
+      <c r="K87" s="1" t="s">
         <v>5292</v>
       </c>
     </row>
@@ -21041,7 +21038,7 @@
         <f t="shared" si="1"/>
         <v>344</v>
       </c>
-      <c r="K88" s="4" t="s">
+      <c r="K88" s="1" t="s">
         <v>5293</v>
       </c>
     </row>
@@ -21077,7 +21074,7 @@
         <f t="shared" si="1"/>
         <v>291</v>
       </c>
-      <c r="K89" s="4" t="s">
+      <c r="K89" s="1" t="s">
         <v>5294</v>
       </c>
     </row>
@@ -21113,7 +21110,7 @@
         <f t="shared" si="1"/>
         <v>352</v>
       </c>
-      <c r="K90" s="4" t="s">
+      <c r="K90" s="1" t="s">
         <v>5295</v>
       </c>
     </row>
@@ -21149,7 +21146,7 @@
         <f t="shared" si="1"/>
         <v>341</v>
       </c>
-      <c r="K91" s="4" t="s">
+      <c r="K91" s="1" t="s">
         <v>5296</v>
       </c>
     </row>
@@ -21185,7 +21182,7 @@
         <f t="shared" si="1"/>
         <v>290</v>
       </c>
-      <c r="K92" s="4" t="s">
+      <c r="K92" s="1" t="s">
         <v>5297</v>
       </c>
     </row>
@@ -21221,7 +21218,7 @@
         <f t="shared" si="1"/>
         <v>287</v>
       </c>
-      <c r="K93" s="4" t="s">
+      <c r="K93" s="1" t="s">
         <v>5298</v>
       </c>
     </row>
@@ -21257,7 +21254,7 @@
         <f t="shared" si="1"/>
         <v>312</v>
       </c>
-      <c r="K94" s="4" t="s">
+      <c r="K94" s="1" t="s">
         <v>5299</v>
       </c>
     </row>
@@ -21293,7 +21290,7 @@
         <f t="shared" si="1"/>
         <v>288</v>
       </c>
-      <c r="K95" s="4" t="s">
+      <c r="K95" s="1" t="s">
         <v>5300</v>
       </c>
     </row>
@@ -21329,7 +21326,7 @@
         <f t="shared" si="1"/>
         <v>249</v>
       </c>
-      <c r="K96" s="4" t="s">
+      <c r="K96" s="1" t="s">
         <v>5301</v>
       </c>
     </row>
@@ -21365,7 +21362,7 @@
         <f t="shared" si="1"/>
         <v>299</v>
       </c>
-      <c r="K97" s="4" t="s">
+      <c r="K97" s="1" t="s">
         <v>5302</v>
       </c>
     </row>
@@ -21401,7 +21398,7 @@
         <f t="shared" si="1"/>
         <v>268</v>
       </c>
-      <c r="K98" s="4" t="s">
+      <c r="K98" s="1" t="s">
         <v>5303</v>
       </c>
     </row>
@@ -21437,7 +21434,7 @@
         <f t="shared" si="1"/>
         <v>255</v>
       </c>
-      <c r="K99" s="4" t="s">
+      <c r="K99" s="1" t="s">
         <v>5304</v>
       </c>
     </row>
@@ -21473,7 +21470,7 @@
         <f t="shared" si="1"/>
         <v>284</v>
       </c>
-      <c r="K100" s="4" t="s">
+      <c r="K100" s="1" t="s">
         <v>5305</v>
       </c>
     </row>
@@ -21509,7 +21506,7 @@
         <f t="shared" si="1"/>
         <v>268</v>
       </c>
-      <c r="K101" s="4" t="s">
+      <c r="K101" s="1" t="s">
         <v>5306</v>
       </c>
     </row>
@@ -21545,7 +21542,7 @@
         <f t="shared" si="1"/>
         <v>418</v>
       </c>
-      <c r="K102" s="4" t="s">
+      <c r="K102" s="1" t="s">
         <v>5307</v>
       </c>
     </row>
@@ -21581,7 +21578,7 @@
         <f t="shared" si="1"/>
         <v>374</v>
       </c>
-      <c r="K103" s="4" t="s">
+      <c r="K103" s="1" t="s">
         <v>5308</v>
       </c>
     </row>
@@ -21617,7 +21614,7 @@
         <f t="shared" si="1"/>
         <v>313</v>
       </c>
-      <c r="K104" s="4" t="s">
+      <c r="K104" s="1" t="s">
         <v>5309</v>
       </c>
     </row>
@@ -21653,7 +21650,7 @@
         <f t="shared" si="1"/>
         <v>341</v>
       </c>
-      <c r="K105" s="4" t="s">
+      <c r="K105" s="1" t="s">
         <v>5310</v>
       </c>
     </row>
@@ -21689,7 +21686,7 @@
         <f t="shared" si="1"/>
         <v>346</v>
       </c>
-      <c r="K106" s="4" t="s">
+      <c r="K106" s="1" t="s">
         <v>5311</v>
       </c>
     </row>
@@ -21725,7 +21722,7 @@
         <f t="shared" si="1"/>
         <v>339</v>
       </c>
-      <c r="K107" s="4" t="s">
+      <c r="K107" s="1" t="s">
         <v>5312</v>
       </c>
     </row>
@@ -21761,7 +21758,7 @@
         <f t="shared" si="1"/>
         <v>339</v>
       </c>
-      <c r="K108" s="4" t="s">
+      <c r="K108" s="1" t="s">
         <v>5313</v>
       </c>
     </row>
@@ -21797,7 +21794,7 @@
         <f t="shared" si="1"/>
         <v>320</v>
       </c>
-      <c r="K109" s="4" t="s">
+      <c r="K109" s="1" t="s">
         <v>5314</v>
       </c>
     </row>
@@ -21833,7 +21830,7 @@
         <f t="shared" si="1"/>
         <v>337</v>
       </c>
-      <c r="K110" s="4" t="s">
+      <c r="K110" s="1" t="s">
         <v>5315</v>
       </c>
     </row>
@@ -21869,7 +21866,7 @@
         <f t="shared" si="1"/>
         <v>355</v>
       </c>
-      <c r="K111" s="4" t="s">
+      <c r="K111" s="1" t="s">
         <v>5316</v>
       </c>
     </row>
@@ -21905,7 +21902,7 @@
         <f t="shared" si="1"/>
         <v>415</v>
       </c>
-      <c r="K112" s="4" t="s">
+      <c r="K112" s="1" t="s">
         <v>5317</v>
       </c>
     </row>
@@ -21941,7 +21938,7 @@
         <f t="shared" si="1"/>
         <v>372</v>
       </c>
-      <c r="K113" s="4" t="s">
+      <c r="K113" s="1" t="s">
         <v>5318</v>
       </c>
     </row>
@@ -21977,7 +21974,7 @@
         <f t="shared" si="1"/>
         <v>365</v>
       </c>
-      <c r="K114" s="4" t="s">
+      <c r="K114" s="1" t="s">
         <v>5319</v>
       </c>
     </row>
@@ -22013,7 +22010,7 @@
         <f t="shared" si="1"/>
         <v>339</v>
       </c>
-      <c r="K115" s="4" t="s">
+      <c r="K115" s="1" t="s">
         <v>5320</v>
       </c>
     </row>
@@ -22049,7 +22046,7 @@
         <f t="shared" si="1"/>
         <v>334</v>
       </c>
-      <c r="K116" s="4" t="s">
+      <c r="K116" s="1" t="s">
         <v>5321</v>
       </c>
     </row>
@@ -22085,7 +22082,7 @@
         <f t="shared" si="1"/>
         <v>361</v>
       </c>
-      <c r="K117" s="4" t="s">
+      <c r="K117" s="1" t="s">
         <v>5322</v>
       </c>
     </row>
@@ -22121,7 +22118,7 @@
         <f t="shared" si="1"/>
         <v>299</v>
       </c>
-      <c r="K118" s="4" t="s">
+      <c r="K118" s="1" t="s">
         <v>5323</v>
       </c>
     </row>
@@ -22157,7 +22154,7 @@
         <f t="shared" si="1"/>
         <v>365</v>
       </c>
-      <c r="K119" s="4" t="s">
+      <c r="K119" s="1" t="s">
         <v>5324</v>
       </c>
     </row>
@@ -22193,7 +22190,7 @@
         <f t="shared" si="1"/>
         <v>338</v>
       </c>
-      <c r="K120" s="4" t="s">
+      <c r="K120" s="1" t="s">
         <v>5325</v>
       </c>
     </row>
@@ -22229,7 +22226,7 @@
         <f t="shared" si="1"/>
         <v>362</v>
       </c>
-      <c r="K121" s="4" t="s">
+      <c r="K121" s="1" t="s">
         <v>5326</v>
       </c>
     </row>
@@ -22265,7 +22262,7 @@
         <f t="shared" si="1"/>
         <v>301</v>
       </c>
-      <c r="K122" s="4" t="s">
+      <c r="K122" s="1" t="s">
         <v>5327</v>
       </c>
     </row>
@@ -22301,7 +22298,7 @@
         <f t="shared" si="1"/>
         <v>270</v>
       </c>
-      <c r="K123" s="4" t="s">
+      <c r="K123" s="1" t="s">
         <v>5328</v>
       </c>
     </row>
@@ -22337,7 +22334,7 @@
         <f t="shared" si="1"/>
         <v>306</v>
       </c>
-      <c r="K124" s="4" t="s">
+      <c r="K124" s="1" t="s">
         <v>5329</v>
       </c>
     </row>
@@ -22373,7 +22370,7 @@
         <f t="shared" si="1"/>
         <v>253</v>
       </c>
-      <c r="K125" s="4" t="s">
+      <c r="K125" s="1" t="s">
         <v>5330</v>
       </c>
     </row>
@@ -22409,7 +22406,7 @@
         <f t="shared" si="1"/>
         <v>274</v>
       </c>
-      <c r="K126" s="4" t="s">
+      <c r="K126" s="1" t="s">
         <v>5331</v>
       </c>
     </row>
@@ -22445,7 +22442,7 @@
         <f t="shared" si="1"/>
         <v>269</v>
       </c>
-      <c r="K127" s="4" t="s">
+      <c r="K127" s="1" t="s">
         <v>5332</v>
       </c>
     </row>
@@ -22481,7 +22478,7 @@
         <f t="shared" si="1"/>
         <v>247</v>
       </c>
-      <c r="K128" s="4" t="s">
+      <c r="K128" s="1" t="s">
         <v>5333</v>
       </c>
     </row>
@@ -22517,7 +22514,7 @@
         <f t="shared" si="1"/>
         <v>242</v>
       </c>
-      <c r="K129" s="4" t="s">
+      <c r="K129" s="1" t="s">
         <v>5334</v>
       </c>
     </row>
@@ -22553,7 +22550,7 @@
         <f t="shared" si="1"/>
         <v>250</v>
       </c>
-      <c r="K130" s="4" t="s">
+      <c r="K130" s="1" t="s">
         <v>5335</v>
       </c>
     </row>
@@ -22589,7 +22586,7 @@
         <f t="shared" ref="J131:J194" si="2">LEN(I131)</f>
         <v>261</v>
       </c>
-      <c r="K131" s="4" t="s">
+      <c r="K131" s="1" t="s">
         <v>5336</v>
       </c>
     </row>
@@ -22625,7 +22622,7 @@
         <f t="shared" si="2"/>
         <v>346</v>
       </c>
-      <c r="K132" s="4" t="s">
+      <c r="K132" s="1" t="s">
         <v>5337</v>
       </c>
     </row>
@@ -22661,7 +22658,7 @@
         <f t="shared" si="2"/>
         <v>304</v>
       </c>
-      <c r="K133" s="4" t="s">
+      <c r="K133" s="1" t="s">
         <v>5338</v>
       </c>
     </row>
@@ -22697,7 +22694,7 @@
         <f t="shared" si="2"/>
         <v>280</v>
       </c>
-      <c r="K134" s="4" t="s">
+      <c r="K134" s="1" t="s">
         <v>5339</v>
       </c>
     </row>
@@ -22733,7 +22730,7 @@
         <f t="shared" si="2"/>
         <v>331</v>
       </c>
-      <c r="K135" s="4" t="s">
+      <c r="K135" s="1" t="s">
         <v>5340</v>
       </c>
     </row>
@@ -22769,7 +22766,7 @@
         <f t="shared" si="2"/>
         <v>309</v>
       </c>
-      <c r="K136" s="4" t="s">
+      <c r="K136" s="1" t="s">
         <v>5341</v>
       </c>
     </row>
@@ -22805,7 +22802,7 @@
         <f t="shared" si="2"/>
         <v>293</v>
       </c>
-      <c r="K137" s="4" t="s">
+      <c r="K137" s="1" t="s">
         <v>5342</v>
       </c>
     </row>
@@ -22841,7 +22838,7 @@
         <f t="shared" si="2"/>
         <v>294</v>
       </c>
-      <c r="K138" s="4" t="s">
+      <c r="K138" s="1" t="s">
         <v>5343</v>
       </c>
     </row>
@@ -22877,7 +22874,7 @@
         <f t="shared" si="2"/>
         <v>282</v>
       </c>
-      <c r="K139" s="4" t="s">
+      <c r="K139" s="1" t="s">
         <v>5344</v>
       </c>
     </row>
@@ -22913,7 +22910,7 @@
         <f t="shared" si="2"/>
         <v>314</v>
       </c>
-      <c r="K140" s="4" t="s">
+      <c r="K140" s="1" t="s">
         <v>5345</v>
       </c>
     </row>
@@ -22949,7 +22946,7 @@
         <f t="shared" si="2"/>
         <v>305</v>
       </c>
-      <c r="K141" s="4" t="s">
+      <c r="K141" s="1" t="s">
         <v>5346</v>
       </c>
     </row>
@@ -22985,7 +22982,7 @@
         <f t="shared" si="2"/>
         <v>300</v>
       </c>
-      <c r="K142" s="4" t="s">
+      <c r="K142" s="1" t="s">
         <v>5347</v>
       </c>
     </row>
@@ -23021,7 +23018,7 @@
         <f t="shared" si="2"/>
         <v>295</v>
       </c>
-      <c r="K143" s="4" t="s">
+      <c r="K143" s="1" t="s">
         <v>5348</v>
       </c>
     </row>
@@ -23057,7 +23054,7 @@
         <f t="shared" si="2"/>
         <v>298</v>
       </c>
-      <c r="K144" s="4" t="s">
+      <c r="K144" s="1" t="s">
         <v>5349</v>
       </c>
     </row>
@@ -23093,7 +23090,7 @@
         <f t="shared" si="2"/>
         <v>272</v>
       </c>
-      <c r="K145" s="4" t="s">
+      <c r="K145" s="1" t="s">
         <v>5350</v>
       </c>
     </row>
@@ -23129,7 +23126,7 @@
         <f t="shared" si="2"/>
         <v>281</v>
       </c>
-      <c r="K146" s="4" t="s">
+      <c r="K146" s="1" t="s">
         <v>5351</v>
       </c>
     </row>
@@ -23165,7 +23162,7 @@
         <f t="shared" si="2"/>
         <v>264</v>
       </c>
-      <c r="K147" s="4" t="s">
+      <c r="K147" s="1" t="s">
         <v>5352</v>
       </c>
     </row>
@@ -23201,7 +23198,7 @@
         <f t="shared" si="2"/>
         <v>289</v>
       </c>
-      <c r="K148" s="4" t="s">
+      <c r="K148" s="1" t="s">
         <v>5353</v>
       </c>
     </row>
@@ -23237,7 +23234,7 @@
         <f t="shared" si="2"/>
         <v>256</v>
       </c>
-      <c r="K149" s="4" t="s">
+      <c r="K149" s="1" t="s">
         <v>5354</v>
       </c>
     </row>
@@ -23273,7 +23270,7 @@
         <f t="shared" si="2"/>
         <v>277</v>
       </c>
-      <c r="K150" s="4" t="s">
+      <c r="K150" s="1" t="s">
         <v>5355</v>
       </c>
     </row>
@@ -23309,7 +23306,7 @@
         <f t="shared" si="2"/>
         <v>268</v>
       </c>
-      <c r="K151" s="4" t="s">
+      <c r="K151" s="1" t="s">
         <v>5356</v>
       </c>
     </row>
@@ -23345,7 +23342,7 @@
         <f t="shared" si="2"/>
         <v>362</v>
       </c>
-      <c r="K152" s="4" t="s">
+      <c r="K152" s="1" t="s">
         <v>5357</v>
       </c>
     </row>
@@ -23381,7 +23378,7 @@
         <f t="shared" si="2"/>
         <v>327</v>
       </c>
-      <c r="K153" s="4" t="s">
+      <c r="K153" s="1" t="s">
         <v>5358</v>
       </c>
     </row>
@@ -23417,7 +23414,7 @@
         <f t="shared" si="2"/>
         <v>344</v>
       </c>
-      <c r="K154" s="4" t="s">
+      <c r="K154" s="1" t="s">
         <v>5359</v>
       </c>
     </row>
@@ -23453,7 +23450,7 @@
         <f t="shared" si="2"/>
         <v>336</v>
       </c>
-      <c r="K155" s="4" t="s">
+      <c r="K155" s="1" t="s">
         <v>5360</v>
       </c>
     </row>
@@ -23489,7 +23486,7 @@
         <f t="shared" si="2"/>
         <v>275</v>
       </c>
-      <c r="K156" s="4" t="s">
+      <c r="K156" s="1" t="s">
         <v>5361</v>
       </c>
     </row>
@@ -23525,7 +23522,7 @@
         <f t="shared" si="2"/>
         <v>255</v>
       </c>
-      <c r="K157" s="4" t="s">
+      <c r="K157" s="1" t="s">
         <v>5362</v>
       </c>
     </row>
@@ -23561,7 +23558,7 @@
         <f t="shared" si="2"/>
         <v>283</v>
       </c>
-      <c r="K158" s="4" t="s">
+      <c r="K158" s="1" t="s">
         <v>5363</v>
       </c>
     </row>
@@ -23597,7 +23594,7 @@
         <f t="shared" si="2"/>
         <v>252</v>
       </c>
-      <c r="K159" s="4" t="s">
+      <c r="K159" s="1" t="s">
         <v>5364</v>
       </c>
     </row>
@@ -23633,7 +23630,7 @@
         <f t="shared" si="2"/>
         <v>281</v>
       </c>
-      <c r="K160" s="4" t="s">
+      <c r="K160" s="1" t="s">
         <v>5365</v>
       </c>
     </row>
@@ -23669,7 +23666,7 @@
         <f t="shared" si="2"/>
         <v>314</v>
       </c>
-      <c r="K161" s="4" t="s">
+      <c r="K161" s="1" t="s">
         <v>5366</v>
       </c>
     </row>
@@ -23705,7 +23702,7 @@
         <f t="shared" si="2"/>
         <v>367</v>
       </c>
-      <c r="K162" s="4" t="s">
+      <c r="K162" s="1" t="s">
         <v>5367</v>
       </c>
     </row>
@@ -23741,7 +23738,7 @@
         <f t="shared" si="2"/>
         <v>343</v>
       </c>
-      <c r="K163" s="4" t="s">
+      <c r="K163" s="1" t="s">
         <v>5368</v>
       </c>
     </row>
@@ -23777,7 +23774,7 @@
         <f t="shared" si="2"/>
         <v>324</v>
       </c>
-      <c r="K164" s="4" t="s">
+      <c r="K164" s="1" t="s">
         <v>5369</v>
       </c>
     </row>
@@ -23813,7 +23810,7 @@
         <f t="shared" si="2"/>
         <v>341</v>
       </c>
-      <c r="K165" s="4" t="s">
+      <c r="K165" s="1" t="s">
         <v>5370</v>
       </c>
     </row>
@@ -23849,7 +23846,7 @@
         <f t="shared" si="2"/>
         <v>303</v>
       </c>
-      <c r="K166" s="4" t="s">
+      <c r="K166" s="1" t="s">
         <v>5371</v>
       </c>
     </row>
@@ -23885,7 +23882,7 @@
         <f t="shared" si="2"/>
         <v>334</v>
       </c>
-      <c r="K167" s="4" t="s">
+      <c r="K167" s="1" t="s">
         <v>5372</v>
       </c>
     </row>
@@ -23921,7 +23918,7 @@
         <f t="shared" si="2"/>
         <v>299</v>
       </c>
-      <c r="K168" s="4" t="s">
+      <c r="K168" s="1" t="s">
         <v>5373</v>
       </c>
     </row>
@@ -23957,7 +23954,7 @@
         <f t="shared" si="2"/>
         <v>306</v>
       </c>
-      <c r="K169" s="4" t="s">
+      <c r="K169" s="1" t="s">
         <v>5374</v>
       </c>
     </row>
@@ -23993,7 +23990,7 @@
         <f t="shared" si="2"/>
         <v>303</v>
       </c>
-      <c r="K170" s="4" t="s">
+      <c r="K170" s="1" t="s">
         <v>5375</v>
       </c>
     </row>
@@ -24029,7 +24026,7 @@
         <f t="shared" si="2"/>
         <v>301</v>
       </c>
-      <c r="K171" s="4" t="s">
+      <c r="K171" s="1" t="s">
         <v>5376</v>
       </c>
     </row>
@@ -24065,7 +24062,7 @@
         <f t="shared" si="2"/>
         <v>356</v>
       </c>
-      <c r="K172" s="4" t="s">
+      <c r="K172" s="1" t="s">
         <v>5377</v>
       </c>
     </row>
@@ -24101,7 +24098,7 @@
         <f t="shared" si="2"/>
         <v>375</v>
       </c>
-      <c r="K173" s="4" t="s">
+      <c r="K173" s="1" t="s">
         <v>5378</v>
       </c>
     </row>
@@ -24137,7 +24134,7 @@
         <f t="shared" si="2"/>
         <v>326</v>
       </c>
-      <c r="K174" s="4" t="s">
+      <c r="K174" s="1" t="s">
         <v>5379</v>
       </c>
     </row>
@@ -24173,7 +24170,7 @@
         <f t="shared" si="2"/>
         <v>400</v>
       </c>
-      <c r="K175" s="4" t="s">
+      <c r="K175" s="1" t="s">
         <v>5380</v>
       </c>
     </row>
@@ -24209,7 +24206,7 @@
         <f t="shared" si="2"/>
         <v>374</v>
       </c>
-      <c r="K176" s="4" t="s">
+      <c r="K176" s="1" t="s">
         <v>5381</v>
       </c>
     </row>
@@ -24245,7 +24242,7 @@
         <f t="shared" si="2"/>
         <v>336</v>
       </c>
-      <c r="K177" s="4" t="s">
+      <c r="K177" s="1" t="s">
         <v>5382</v>
       </c>
     </row>
@@ -24281,7 +24278,7 @@
         <f t="shared" si="2"/>
         <v>360</v>
       </c>
-      <c r="K178" s="4" t="s">
+      <c r="K178" s="1" t="s">
         <v>5383</v>
       </c>
     </row>
@@ -24317,7 +24314,7 @@
         <f t="shared" si="2"/>
         <v>345</v>
       </c>
-      <c r="K179" s="4" t="s">
+      <c r="K179" s="1" t="s">
         <v>5384</v>
       </c>
     </row>
@@ -24353,7 +24350,7 @@
         <f t="shared" si="2"/>
         <v>331</v>
       </c>
-      <c r="K180" s="4" t="s">
+      <c r="K180" s="1" t="s">
         <v>5385</v>
       </c>
     </row>
@@ -24389,7 +24386,7 @@
         <f t="shared" si="2"/>
         <v>319</v>
       </c>
-      <c r="K181" s="4" t="s">
+      <c r="K181" s="1" t="s">
         <v>5386</v>
       </c>
     </row>
@@ -24425,7 +24422,7 @@
         <f t="shared" si="2"/>
         <v>433</v>
       </c>
-      <c r="K182" s="4" t="s">
+      <c r="K182" s="1" t="s">
         <v>5387</v>
       </c>
     </row>
@@ -24461,7 +24458,7 @@
         <f t="shared" si="2"/>
         <v>379</v>
       </c>
-      <c r="K183" s="4" t="s">
+      <c r="K183" s="1" t="s">
         <v>5388</v>
       </c>
     </row>
@@ -24497,7 +24494,7 @@
         <f t="shared" si="2"/>
         <v>347</v>
       </c>
-      <c r="K184" s="4" t="s">
+      <c r="K184" s="1" t="s">
         <v>5389</v>
       </c>
     </row>
@@ -24533,7 +24530,7 @@
         <f t="shared" si="2"/>
         <v>359</v>
       </c>
-      <c r="K185" s="4" t="s">
+      <c r="K185" s="1" t="s">
         <v>5390</v>
       </c>
     </row>
@@ -24569,7 +24566,7 @@
         <f t="shared" si="2"/>
         <v>390</v>
       </c>
-      <c r="K186" s="4" t="s">
+      <c r="K186" s="1" t="s">
         <v>5391</v>
       </c>
     </row>
@@ -24605,7 +24602,7 @@
         <f t="shared" si="2"/>
         <v>443</v>
       </c>
-      <c r="K187" s="4" t="s">
+      <c r="K187" s="1" t="s">
         <v>5392</v>
       </c>
     </row>
@@ -24641,7 +24638,7 @@
         <f t="shared" si="2"/>
         <v>319</v>
       </c>
-      <c r="K188" s="4" t="s">
+      <c r="K188" s="1" t="s">
         <v>5393</v>
       </c>
     </row>
@@ -24677,7 +24674,7 @@
         <f t="shared" si="2"/>
         <v>335</v>
       </c>
-      <c r="K189" s="4" t="s">
+      <c r="K189" s="1" t="s">
         <v>5394</v>
       </c>
     </row>
@@ -24713,7 +24710,7 @@
         <f t="shared" si="2"/>
         <v>304</v>
       </c>
-      <c r="K190" s="4" t="s">
+      <c r="K190" s="1" t="s">
         <v>5395</v>
       </c>
     </row>
@@ -24749,7 +24746,7 @@
         <f t="shared" si="2"/>
         <v>383</v>
       </c>
-      <c r="K191" s="4" t="s">
+      <c r="K191" s="1" t="s">
         <v>5396</v>
       </c>
     </row>
@@ -24785,7 +24782,7 @@
         <f t="shared" si="2"/>
         <v>338</v>
       </c>
-      <c r="K192" s="4" t="s">
+      <c r="K192" s="1" t="s">
         <v>5397</v>
       </c>
     </row>
@@ -24821,7 +24818,7 @@
         <f t="shared" si="2"/>
         <v>273</v>
       </c>
-      <c r="K193" s="4" t="s">
+      <c r="K193" s="1" t="s">
         <v>5398</v>
       </c>
     </row>
@@ -24857,7 +24854,7 @@
         <f t="shared" si="2"/>
         <v>264</v>
       </c>
-      <c r="K194" s="4" t="s">
+      <c r="K194" s="1" t="s">
         <v>5399</v>
       </c>
     </row>
@@ -24893,7 +24890,7 @@
         <f t="shared" ref="J195:J258" si="3">LEN(I195)</f>
         <v>272</v>
       </c>
-      <c r="K195" s="4" t="s">
+      <c r="K195" s="1" t="s">
         <v>5400</v>
       </c>
     </row>
@@ -24929,7 +24926,7 @@
         <f t="shared" si="3"/>
         <v>244</v>
       </c>
-      <c r="K196" s="4" t="s">
+      <c r="K196" s="1" t="s">
         <v>5401</v>
       </c>
     </row>
@@ -24965,7 +24962,7 @@
         <f t="shared" si="3"/>
         <v>210</v>
       </c>
-      <c r="K197" s="4" t="s">
+      <c r="K197" s="1" t="s">
         <v>5402</v>
       </c>
     </row>
@@ -25001,7 +24998,7 @@
         <f t="shared" si="3"/>
         <v>204</v>
       </c>
-      <c r="K198" s="4" t="s">
+      <c r="K198" s="1" t="s">
         <v>5403</v>
       </c>
     </row>
@@ -25037,7 +25034,7 @@
         <f t="shared" si="3"/>
         <v>208</v>
       </c>
-      <c r="K199" s="4" t="s">
+      <c r="K199" s="1" t="s">
         <v>5404</v>
       </c>
     </row>
@@ -25073,7 +25070,7 @@
         <f t="shared" si="3"/>
         <v>177</v>
       </c>
-      <c r="K200" s="4" t="s">
+      <c r="K200" s="1" t="s">
         <v>5405</v>
       </c>
     </row>
@@ -25109,7 +25106,7 @@
         <f t="shared" si="3"/>
         <v>216</v>
       </c>
-      <c r="K201" s="4" t="s">
+      <c r="K201" s="1" t="s">
         <v>5406</v>
       </c>
     </row>
@@ -25145,7 +25142,7 @@
         <f t="shared" si="3"/>
         <v>346</v>
       </c>
-      <c r="K202" s="4" t="s">
+      <c r="K202" s="1" t="s">
         <v>5407</v>
       </c>
     </row>
@@ -25181,7 +25178,7 @@
         <f t="shared" si="3"/>
         <v>329</v>
       </c>
-      <c r="K203" s="4" t="s">
+      <c r="K203" s="1" t="s">
         <v>5408</v>
       </c>
     </row>
@@ -25217,7 +25214,7 @@
         <f t="shared" si="3"/>
         <v>327</v>
       </c>
-      <c r="K204" s="4" t="s">
+      <c r="K204" s="1" t="s">
         <v>5409</v>
       </c>
     </row>
@@ -25253,7 +25250,7 @@
         <f t="shared" si="3"/>
         <v>314</v>
       </c>
-      <c r="K205" s="4" t="s">
+      <c r="K205" s="1" t="s">
         <v>5410</v>
       </c>
     </row>
@@ -25289,7 +25286,7 @@
         <f t="shared" si="3"/>
         <v>275</v>
       </c>
-      <c r="K206" s="4" t="s">
+      <c r="K206" s="1" t="s">
         <v>5411</v>
       </c>
     </row>
@@ -25325,7 +25322,7 @@
         <f t="shared" si="3"/>
         <v>283</v>
       </c>
-      <c r="K207" s="4" t="s">
+      <c r="K207" s="1" t="s">
         <v>5412</v>
       </c>
     </row>
@@ -25361,7 +25358,7 @@
         <f t="shared" si="3"/>
         <v>263</v>
       </c>
-      <c r="K208" s="4" t="s">
+      <c r="K208" s="1" t="s">
         <v>5413</v>
       </c>
     </row>
@@ -25397,7 +25394,7 @@
         <f t="shared" si="3"/>
         <v>279</v>
       </c>
-      <c r="K209" s="4" t="s">
+      <c r="K209" s="1" t="s">
         <v>5414</v>
       </c>
     </row>
@@ -25433,7 +25430,7 @@
         <f t="shared" si="3"/>
         <v>293</v>
       </c>
-      <c r="K210" s="4" t="s">
+      <c r="K210" s="1" t="s">
         <v>5415</v>
       </c>
     </row>
@@ -25469,7 +25466,7 @@
         <f t="shared" si="3"/>
         <v>320</v>
       </c>
-      <c r="K211" s="4" t="s">
+      <c r="K211" s="1" t="s">
         <v>5416</v>
       </c>
     </row>
@@ -25505,7 +25502,7 @@
         <f t="shared" si="3"/>
         <v>327</v>
       </c>
-      <c r="K212" s="4" t="s">
+      <c r="K212" s="1" t="s">
         <v>5417</v>
       </c>
     </row>
@@ -25541,7 +25538,7 @@
         <f t="shared" si="3"/>
         <v>309</v>
       </c>
-      <c r="K213" s="4" t="s">
+      <c r="K213" s="1" t="s">
         <v>5418</v>
       </c>
     </row>
@@ -25577,7 +25574,7 @@
         <f t="shared" si="3"/>
         <v>308</v>
       </c>
-      <c r="K214" s="4" t="s">
+      <c r="K214" s="1" t="s">
         <v>5419</v>
       </c>
     </row>
@@ -25613,7 +25610,7 @@
         <f t="shared" si="3"/>
         <v>288</v>
       </c>
-      <c r="K215" s="4" t="s">
+      <c r="K215" s="1" t="s">
         <v>5420</v>
       </c>
     </row>
@@ -25649,7 +25646,7 @@
         <f t="shared" si="3"/>
         <v>294</v>
       </c>
-      <c r="K216" s="4" t="s">
+      <c r="K216" s="1" t="s">
         <v>5421</v>
       </c>
     </row>
@@ -25685,7 +25682,7 @@
         <f t="shared" si="3"/>
         <v>269</v>
       </c>
-      <c r="K217" s="4" t="s">
+      <c r="K217" s="1" t="s">
         <v>5422</v>
       </c>
     </row>
@@ -25721,7 +25718,7 @@
         <f t="shared" si="3"/>
         <v>294</v>
       </c>
-      <c r="K218" s="4" t="s">
+      <c r="K218" s="1" t="s">
         <v>5423</v>
       </c>
     </row>
@@ -25757,7 +25754,7 @@
         <f t="shared" si="3"/>
         <v>286</v>
       </c>
-      <c r="K219" s="4" t="s">
+      <c r="K219" s="1" t="s">
         <v>5424</v>
       </c>
     </row>
@@ -25793,7 +25790,7 @@
         <f t="shared" si="3"/>
         <v>259</v>
       </c>
-      <c r="K220" s="4" t="s">
+      <c r="K220" s="1" t="s">
         <v>5425</v>
       </c>
     </row>
@@ -25829,7 +25826,7 @@
         <f t="shared" si="3"/>
         <v>288</v>
       </c>
-      <c r="K221" s="4" t="s">
+      <c r="K221" s="1" t="s">
         <v>5426</v>
       </c>
     </row>
@@ -25865,7 +25862,7 @@
         <f t="shared" si="3"/>
         <v>390</v>
       </c>
-      <c r="K222" s="4" t="s">
+      <c r="K222" s="1" t="s">
         <v>5427</v>
       </c>
     </row>
@@ -25901,7 +25898,7 @@
         <f t="shared" si="3"/>
         <v>361</v>
       </c>
-      <c r="K223" s="4" t="s">
+      <c r="K223" s="1" t="s">
         <v>5428</v>
       </c>
     </row>
@@ -25937,7 +25934,7 @@
         <f t="shared" si="3"/>
         <v>359</v>
       </c>
-      <c r="K224" s="4" t="s">
+      <c r="K224" s="1" t="s">
         <v>5429</v>
       </c>
     </row>
@@ -25973,7 +25970,7 @@
         <f t="shared" si="3"/>
         <v>318</v>
       </c>
-      <c r="K225" s="4" t="s">
+      <c r="K225" s="1" t="s">
         <v>5430</v>
       </c>
     </row>
@@ -26009,7 +26006,7 @@
         <f t="shared" si="3"/>
         <v>344</v>
       </c>
-      <c r="K226" s="4" t="s">
+      <c r="K226" s="1" t="s">
         <v>5431</v>
       </c>
     </row>
@@ -26045,7 +26042,7 @@
         <f t="shared" si="3"/>
         <v>286</v>
       </c>
-      <c r="K227" s="4" t="s">
+      <c r="K227" s="1" t="s">
         <v>5432</v>
       </c>
     </row>
@@ -26081,7 +26078,7 @@
         <f t="shared" si="3"/>
         <v>240</v>
       </c>
-      <c r="K228" s="4" t="s">
+      <c r="K228" s="1" t="s">
         <v>5433</v>
       </c>
     </row>
@@ -26117,7 +26114,7 @@
         <f t="shared" si="3"/>
         <v>256</v>
       </c>
-      <c r="K229" s="4" t="s">
+      <c r="K229" s="1" t="s">
         <v>5434</v>
       </c>
     </row>
@@ -26153,7 +26150,7 @@
         <f t="shared" si="3"/>
         <v>252</v>
       </c>
-      <c r="K230" s="4" t="s">
+      <c r="K230" s="1" t="s">
         <v>5435</v>
       </c>
     </row>
@@ -26189,7 +26186,7 @@
         <f t="shared" si="3"/>
         <v>271</v>
       </c>
-      <c r="K231" s="4" t="s">
+      <c r="K231" s="1" t="s">
         <v>5436</v>
       </c>
     </row>
@@ -26225,7 +26222,7 @@
         <f t="shared" si="3"/>
         <v>341</v>
       </c>
-      <c r="K232" s="4" t="s">
+      <c r="K232" s="1" t="s">
         <v>5437</v>
       </c>
     </row>
@@ -26261,7 +26258,7 @@
         <f t="shared" si="3"/>
         <v>326</v>
       </c>
-      <c r="K233" s="4" t="s">
+      <c r="K233" s="1" t="s">
         <v>5438</v>
       </c>
     </row>
@@ -26297,7 +26294,7 @@
         <f t="shared" si="3"/>
         <v>399</v>
       </c>
-      <c r="K234" s="4" t="s">
+      <c r="K234" s="1" t="s">
         <v>5439</v>
       </c>
     </row>
@@ -26333,7 +26330,7 @@
         <f t="shared" si="3"/>
         <v>304</v>
       </c>
-      <c r="K235" s="4" t="s">
+      <c r="K235" s="1" t="s">
         <v>5440</v>
       </c>
     </row>
@@ -26369,7 +26366,7 @@
         <f t="shared" si="3"/>
         <v>285</v>
       </c>
-      <c r="K236" s="4" t="s">
+      <c r="K236" s="1" t="s">
         <v>5441</v>
       </c>
     </row>
@@ -26405,7 +26402,7 @@
         <f t="shared" si="3"/>
         <v>264</v>
       </c>
-      <c r="K237" s="4" t="s">
+      <c r="K237" s="1" t="s">
         <v>5442</v>
       </c>
     </row>
@@ -26441,7 +26438,7 @@
         <f t="shared" si="3"/>
         <v>270</v>
       </c>
-      <c r="K238" s="4" t="s">
+      <c r="K238" s="1" t="s">
         <v>5443</v>
       </c>
     </row>
@@ -26477,7 +26474,7 @@
         <f t="shared" si="3"/>
         <v>299</v>
       </c>
-      <c r="K239" s="4" t="s">
+      <c r="K239" s="1" t="s">
         <v>5444</v>
       </c>
     </row>
@@ -26513,7 +26510,7 @@
         <f t="shared" si="3"/>
         <v>303</v>
       </c>
-      <c r="K240" s="4" t="s">
+      <c r="K240" s="1" t="s">
         <v>5445</v>
       </c>
     </row>
@@ -26549,7 +26546,7 @@
         <f t="shared" si="3"/>
         <v>291</v>
       </c>
-      <c r="K241" s="4" t="s">
+      <c r="K241" s="1" t="s">
         <v>5446</v>
       </c>
     </row>
@@ -26585,7 +26582,7 @@
         <f t="shared" si="3"/>
         <v>386</v>
       </c>
-      <c r="K242" s="4" t="s">
+      <c r="K242" s="1" t="s">
         <v>5447</v>
       </c>
     </row>
@@ -26621,7 +26618,7 @@
         <f t="shared" si="3"/>
         <v>353</v>
       </c>
-      <c r="K243" s="4" t="s">
+      <c r="K243" s="1" t="s">
         <v>5448</v>
       </c>
     </row>
@@ -26657,7 +26654,7 @@
         <f t="shared" si="3"/>
         <v>296</v>
       </c>
-      <c r="K244" s="4" t="s">
+      <c r="K244" s="1" t="s">
         <v>5449</v>
       </c>
     </row>
@@ -26693,7 +26690,7 @@
         <f t="shared" si="3"/>
         <v>397</v>
       </c>
-      <c r="K245" s="4" t="s">
+      <c r="K245" s="1" t="s">
         <v>5450</v>
       </c>
     </row>
@@ -26729,7 +26726,7 @@
         <f t="shared" si="3"/>
         <v>330</v>
       </c>
-      <c r="K246" s="4" t="s">
+      <c r="K246" s="1" t="s">
         <v>5451</v>
       </c>
     </row>
@@ -26765,7 +26762,7 @@
         <f t="shared" si="3"/>
         <v>307</v>
       </c>
-      <c r="K247" s="4" t="s">
+      <c r="K247" s="1" t="s">
         <v>5452</v>
       </c>
     </row>
@@ -26801,7 +26798,7 @@
         <f t="shared" si="3"/>
         <v>319</v>
       </c>
-      <c r="K248" s="4" t="s">
+      <c r="K248" s="1" t="s">
         <v>5453</v>
       </c>
     </row>
@@ -26837,7 +26834,7 @@
         <f t="shared" si="3"/>
         <v>274</v>
       </c>
-      <c r="K249" s="4" t="s">
+      <c r="K249" s="1" t="s">
         <v>5454</v>
       </c>
     </row>
@@ -26873,7 +26870,7 @@
         <f t="shared" si="3"/>
         <v>268</v>
       </c>
-      <c r="K250" s="4" t="s">
+      <c r="K250" s="1" t="s">
         <v>5455</v>
       </c>
     </row>
@@ -26909,7 +26906,7 @@
         <f t="shared" si="3"/>
         <v>317</v>
       </c>
-      <c r="K251" s="4" t="s">
+      <c r="K251" s="1" t="s">
         <v>5456</v>
       </c>
     </row>
@@ -26945,7 +26942,7 @@
         <f t="shared" si="3"/>
         <v>340</v>
       </c>
-      <c r="K252" s="4" t="s">
+      <c r="K252" s="1" t="s">
         <v>5457</v>
       </c>
     </row>
@@ -26981,7 +26978,7 @@
         <f t="shared" si="3"/>
         <v>310</v>
       </c>
-      <c r="K253" s="4" t="s">
+      <c r="K253" s="1" t="s">
         <v>5458</v>
       </c>
     </row>
@@ -27017,7 +27014,7 @@
         <f t="shared" si="3"/>
         <v>311</v>
       </c>
-      <c r="K254" s="4" t="s">
+      <c r="K254" s="1" t="s">
         <v>5459</v>
       </c>
     </row>
@@ -27053,7 +27050,7 @@
         <f t="shared" si="3"/>
         <v>366</v>
       </c>
-      <c r="K255" s="4" t="s">
+      <c r="K255" s="1" t="s">
         <v>5460</v>
       </c>
     </row>
@@ -27089,7 +27086,7 @@
         <f t="shared" si="3"/>
         <v>282</v>
       </c>
-      <c r="K256" s="4" t="s">
+      <c r="K256" s="1" t="s">
         <v>5461</v>
       </c>
     </row>
@@ -27125,7 +27122,7 @@
         <f t="shared" si="3"/>
         <v>268</v>
       </c>
-      <c r="K257" s="4" t="s">
+      <c r="K257" s="1" t="s">
         <v>5462</v>
       </c>
     </row>
@@ -27161,7 +27158,7 @@
         <f t="shared" si="3"/>
         <v>314</v>
       </c>
-      <c r="K258" s="4" t="s">
+      <c r="K258" s="1" t="s">
         <v>5463</v>
       </c>
     </row>
@@ -27197,7 +27194,7 @@
         <f t="shared" ref="J259:J322" si="4">LEN(I259)</f>
         <v>291</v>
       </c>
-      <c r="K259" s="4" t="s">
+      <c r="K259" s="1" t="s">
         <v>5464</v>
       </c>
     </row>
@@ -27233,7 +27230,7 @@
         <f t="shared" si="4"/>
         <v>324</v>
       </c>
-      <c r="K260" s="4" t="s">
+      <c r="K260" s="1" t="s">
         <v>5465</v>
       </c>
     </row>
@@ -27269,7 +27266,7 @@
         <f t="shared" si="4"/>
         <v>310</v>
       </c>
-      <c r="K261" s="4" t="s">
+      <c r="K261" s="1" t="s">
         <v>5466</v>
       </c>
     </row>
@@ -27305,7 +27302,7 @@
         <f t="shared" si="4"/>
         <v>322</v>
       </c>
-      <c r="K262" s="4" t="s">
+      <c r="K262" s="1" t="s">
         <v>5467</v>
       </c>
     </row>
@@ -27341,7 +27338,7 @@
         <f t="shared" si="4"/>
         <v>313</v>
       </c>
-      <c r="K263" s="4" t="s">
+      <c r="K263" s="1" t="s">
         <v>5468</v>
       </c>
     </row>
@@ -27377,7 +27374,7 @@
         <f t="shared" si="4"/>
         <v>299</v>
       </c>
-      <c r="K264" s="4" t="s">
+      <c r="K264" s="1" t="s">
         <v>5469</v>
       </c>
     </row>
@@ -27413,7 +27410,7 @@
         <f t="shared" si="4"/>
         <v>273</v>
       </c>
-      <c r="K265" s="4" t="s">
+      <c r="K265" s="1" t="s">
         <v>5470</v>
       </c>
     </row>
@@ -27449,7 +27446,7 @@
         <f t="shared" si="4"/>
         <v>257</v>
       </c>
-      <c r="K266" s="4" t="s">
+      <c r="K266" s="1" t="s">
         <v>5471</v>
       </c>
     </row>
@@ -27485,7 +27482,7 @@
         <f t="shared" si="4"/>
         <v>235</v>
       </c>
-      <c r="K267" s="4" t="s">
+      <c r="K267" s="1" t="s">
         <v>5472</v>
       </c>
     </row>
@@ -27521,7 +27518,7 @@
         <f t="shared" si="4"/>
         <v>251</v>
       </c>
-      <c r="K268" s="4" t="s">
+      <c r="K268" s="1" t="s">
         <v>5473</v>
       </c>
     </row>
@@ -27557,7 +27554,7 @@
         <f t="shared" si="4"/>
         <v>271</v>
       </c>
-      <c r="K269" s="4" t="s">
+      <c r="K269" s="1" t="s">
         <v>5474</v>
       </c>
     </row>
@@ -27593,7 +27590,7 @@
         <f t="shared" si="4"/>
         <v>267</v>
       </c>
-      <c r="K270" s="4" t="s">
+      <c r="K270" s="1" t="s">
         <v>5475</v>
       </c>
     </row>
@@ -27629,7 +27626,7 @@
         <f t="shared" si="4"/>
         <v>258</v>
       </c>
-      <c r="K271" s="4" t="s">
+      <c r="K271" s="1" t="s">
         <v>5476</v>
       </c>
     </row>
@@ -27665,7 +27662,7 @@
         <f t="shared" si="4"/>
         <v>312</v>
       </c>
-      <c r="K272" s="4" t="s">
+      <c r="K272" s="1" t="s">
         <v>5477</v>
       </c>
     </row>
@@ -27701,7 +27698,7 @@
         <f t="shared" si="4"/>
         <v>288</v>
       </c>
-      <c r="K273" s="4" t="s">
+      <c r="K273" s="1" t="s">
         <v>5478</v>
       </c>
     </row>
@@ -27737,7 +27734,7 @@
         <f t="shared" si="4"/>
         <v>251</v>
       </c>
-      <c r="K274" s="4" t="s">
+      <c r="K274" s="1" t="s">
         <v>5479</v>
       </c>
     </row>
@@ -27773,7 +27770,7 @@
         <f t="shared" si="4"/>
         <v>268</v>
       </c>
-      <c r="K275" s="4" t="s">
+      <c r="K275" s="1" t="s">
         <v>5480</v>
       </c>
     </row>
@@ -27809,7 +27806,7 @@
         <f t="shared" si="4"/>
         <v>261</v>
       </c>
-      <c r="K276" s="4" t="s">
+      <c r="K276" s="1" t="s">
         <v>5481</v>
       </c>
     </row>
@@ -27845,7 +27842,7 @@
         <f t="shared" si="4"/>
         <v>247</v>
       </c>
-      <c r="K277" s="4" t="s">
+      <c r="K277" s="1" t="s">
         <v>5482</v>
       </c>
     </row>
@@ -27881,7 +27878,7 @@
         <f t="shared" si="4"/>
         <v>241</v>
       </c>
-      <c r="K278" s="4" t="s">
+      <c r="K278" s="1" t="s">
         <v>5483</v>
       </c>
     </row>
@@ -27917,7 +27914,7 @@
         <f t="shared" si="4"/>
         <v>269</v>
       </c>
-      <c r="K279" s="4" t="s">
+      <c r="K279" s="1" t="s">
         <v>5484</v>
       </c>
     </row>
@@ -27953,7 +27950,7 @@
         <f t="shared" si="4"/>
         <v>248</v>
       </c>
-      <c r="K280" s="4" t="s">
+      <c r="K280" s="1" t="s">
         <v>5485</v>
       </c>
     </row>
@@ -27989,7 +27986,7 @@
         <f t="shared" si="4"/>
         <v>249</v>
       </c>
-      <c r="K281" s="4" t="s">
+      <c r="K281" s="1" t="s">
         <v>5486</v>
       </c>
     </row>
@@ -28025,7 +28022,7 @@
         <f t="shared" si="4"/>
         <v>298</v>
       </c>
-      <c r="K282" s="4" t="s">
+      <c r="K282" s="1" t="s">
         <v>5487</v>
       </c>
     </row>
@@ -28061,7 +28058,7 @@
         <f t="shared" si="4"/>
         <v>282</v>
       </c>
-      <c r="K283" s="4" t="s">
+      <c r="K283" s="1" t="s">
         <v>5488</v>
       </c>
     </row>
@@ -28097,7 +28094,7 @@
         <f t="shared" si="4"/>
         <v>313</v>
       </c>
-      <c r="K284" s="4" t="s">
+      <c r="K284" s="1" t="s">
         <v>5489</v>
       </c>
     </row>
@@ -28133,7 +28130,7 @@
         <f t="shared" si="4"/>
         <v>263</v>
       </c>
-      <c r="K285" s="4" t="s">
+      <c r="K285" s="1" t="s">
         <v>5490</v>
       </c>
     </row>
@@ -28169,7 +28166,7 @@
         <f t="shared" si="4"/>
         <v>247</v>
       </c>
-      <c r="K286" s="4" t="s">
+      <c r="K286" s="1" t="s">
         <v>5491</v>
       </c>
     </row>
@@ -28205,7 +28202,7 @@
         <f t="shared" si="4"/>
         <v>244</v>
       </c>
-      <c r="K287" s="4" t="s">
+      <c r="K287" s="1" t="s">
         <v>5492</v>
       </c>
     </row>
@@ -28241,7 +28238,7 @@
         <f t="shared" si="4"/>
         <v>254</v>
       </c>
-      <c r="K288" s="4" t="s">
+      <c r="K288" s="1" t="s">
         <v>5493</v>
       </c>
     </row>
@@ -28277,7 +28274,7 @@
         <f t="shared" si="4"/>
         <v>243</v>
       </c>
-      <c r="K289" s="4" t="s">
+      <c r="K289" s="1" t="s">
         <v>5494</v>
       </c>
     </row>
@@ -28313,7 +28310,7 @@
         <f t="shared" si="4"/>
         <v>247</v>
       </c>
-      <c r="K290" s="4" t="s">
+      <c r="K290" s="1" t="s">
         <v>5495</v>
       </c>
     </row>
@@ -28349,7 +28346,7 @@
         <f t="shared" si="4"/>
         <v>243</v>
       </c>
-      <c r="K291" s="4" t="s">
+      <c r="K291" s="1" t="s">
         <v>5496</v>
       </c>
     </row>
@@ -28385,7 +28382,7 @@
         <f t="shared" si="4"/>
         <v>428</v>
       </c>
-      <c r="K292" s="4" t="s">
+      <c r="K292" s="1" t="s">
         <v>5497</v>
       </c>
     </row>
@@ -28421,7 +28418,7 @@
         <f t="shared" si="4"/>
         <v>347</v>
       </c>
-      <c r="K293" s="4" t="s">
+      <c r="K293" s="1" t="s">
         <v>5498</v>
       </c>
     </row>
@@ -28457,7 +28454,7 @@
         <f t="shared" si="4"/>
         <v>334</v>
       </c>
-      <c r="K294" s="4" t="s">
+      <c r="K294" s="1" t="s">
         <v>5499</v>
       </c>
     </row>
@@ -28493,7 +28490,7 @@
         <f t="shared" si="4"/>
         <v>409</v>
       </c>
-      <c r="K295" s="4" t="s">
+      <c r="K295" s="1" t="s">
         <v>5500</v>
       </c>
     </row>
@@ -28529,7 +28526,7 @@
         <f t="shared" si="4"/>
         <v>347</v>
       </c>
-      <c r="K296" s="4" t="s">
+      <c r="K296" s="1" t="s">
         <v>5501</v>
       </c>
     </row>
@@ -28565,7 +28562,7 @@
         <f t="shared" si="4"/>
         <v>285</v>
       </c>
-      <c r="K297" s="4" t="s">
+      <c r="K297" s="1" t="s">
         <v>5502</v>
       </c>
     </row>
@@ -28601,7 +28598,7 @@
         <f t="shared" si="4"/>
         <v>309</v>
       </c>
-      <c r="K298" s="4" t="s">
+      <c r="K298" s="1" t="s">
         <v>5503</v>
       </c>
     </row>
@@ -28637,7 +28634,7 @@
         <f t="shared" si="4"/>
         <v>331</v>
       </c>
-      <c r="K299" s="4" t="s">
+      <c r="K299" s="1" t="s">
         <v>5504</v>
       </c>
     </row>
@@ -28673,7 +28670,7 @@
         <f t="shared" si="4"/>
         <v>319</v>
       </c>
-      <c r="K300" s="4" t="s">
+      <c r="K300" s="1" t="s">
         <v>5505</v>
       </c>
     </row>
@@ -28709,7 +28706,7 @@
         <f t="shared" si="4"/>
         <v>311</v>
       </c>
-      <c r="K301" s="4" t="s">
+      <c r="K301" s="1" t="s">
         <v>5506</v>
       </c>
     </row>
@@ -28745,7 +28742,7 @@
         <f t="shared" si="4"/>
         <v>356</v>
       </c>
-      <c r="K302" s="4" t="s">
+      <c r="K302" s="1" t="s">
         <v>5507</v>
       </c>
     </row>
@@ -28781,7 +28778,7 @@
         <f t="shared" si="4"/>
         <v>298</v>
       </c>
-      <c r="K303" s="4" t="s">
+      <c r="K303" s="1" t="s">
         <v>5508</v>
       </c>
     </row>
@@ -28817,7 +28814,7 @@
         <f t="shared" si="4"/>
         <v>370</v>
       </c>
-      <c r="K304" s="4" t="s">
+      <c r="K304" s="1" t="s">
         <v>5509</v>
       </c>
     </row>
@@ -28853,7 +28850,7 @@
         <f t="shared" si="4"/>
         <v>281</v>
       </c>
-      <c r="K305" s="4" t="s">
+      <c r="K305" s="1" t="s">
         <v>5510</v>
       </c>
     </row>
@@ -28889,7 +28886,7 @@
         <f t="shared" si="4"/>
         <v>362</v>
       </c>
-      <c r="K306" s="4" t="s">
+      <c r="K306" s="1" t="s">
         <v>5511</v>
       </c>
     </row>
@@ -28925,7 +28922,7 @@
         <f t="shared" si="4"/>
         <v>277</v>
       </c>
-      <c r="K307" s="4" t="s">
+      <c r="K307" s="1" t="s">
         <v>5512</v>
       </c>
     </row>
@@ -28961,7 +28958,7 @@
         <f t="shared" si="4"/>
         <v>274</v>
       </c>
-      <c r="K308" s="4" t="s">
+      <c r="K308" s="1" t="s">
         <v>5513</v>
       </c>
     </row>
@@ -28997,7 +28994,7 @@
         <f t="shared" si="4"/>
         <v>281</v>
       </c>
-      <c r="K309" s="4" t="s">
+      <c r="K309" s="1" t="s">
         <v>5514</v>
       </c>
     </row>
@@ -29033,7 +29030,7 @@
         <f t="shared" si="4"/>
         <v>272</v>
       </c>
-      <c r="K310" s="4" t="s">
+      <c r="K310" s="1" t="s">
         <v>5515</v>
       </c>
     </row>
@@ -29069,7 +29066,7 @@
         <f t="shared" si="4"/>
         <v>276</v>
       </c>
-      <c r="K311" s="4" t="s">
+      <c r="K311" s="1" t="s">
         <v>5516</v>
       </c>
     </row>
@@ -29105,7 +29102,7 @@
         <f t="shared" si="4"/>
         <v>364</v>
       </c>
-      <c r="K312" s="4" t="s">
+      <c r="K312" s="1" t="s">
         <v>5517</v>
       </c>
     </row>
@@ -29141,7 +29138,7 @@
         <f t="shared" si="4"/>
         <v>345</v>
       </c>
-      <c r="K313" s="4" t="s">
+      <c r="K313" s="1" t="s">
         <v>5518</v>
       </c>
     </row>
@@ -29177,7 +29174,7 @@
         <f t="shared" si="4"/>
         <v>383</v>
       </c>
-      <c r="K314" s="4" t="s">
+      <c r="K314" s="1" t="s">
         <v>5519</v>
       </c>
     </row>
@@ -29213,7 +29210,7 @@
         <f t="shared" si="4"/>
         <v>324</v>
       </c>
-      <c r="K315" s="4" t="s">
+      <c r="K315" s="1" t="s">
         <v>5520</v>
       </c>
     </row>
@@ -29249,7 +29246,7 @@
         <f t="shared" si="4"/>
         <v>309</v>
       </c>
-      <c r="K316" s="4" t="s">
+      <c r="K316" s="1" t="s">
         <v>5521</v>
       </c>
     </row>
@@ -29285,7 +29282,7 @@
         <f t="shared" si="4"/>
         <v>298</v>
       </c>
-      <c r="K317" s="4" t="s">
+      <c r="K317" s="1" t="s">
         <v>5522</v>
       </c>
     </row>
@@ -29321,7 +29318,7 @@
         <f t="shared" si="4"/>
         <v>314</v>
       </c>
-      <c r="K318" s="4" t="s">
+      <c r="K318" s="1" t="s">
         <v>5523</v>
       </c>
     </row>
@@ -29357,7 +29354,7 @@
         <f t="shared" si="4"/>
         <v>280</v>
       </c>
-      <c r="K319" s="4" t="s">
+      <c r="K319" s="1" t="s">
         <v>5524</v>
       </c>
     </row>
@@ -29393,7 +29390,7 @@
         <f t="shared" si="4"/>
         <v>292</v>
       </c>
-      <c r="K320" s="4" t="s">
+      <c r="K320" s="1" t="s">
         <v>5525</v>
       </c>
     </row>
@@ -29429,7 +29426,7 @@
         <f t="shared" si="4"/>
         <v>351</v>
       </c>
-      <c r="K321" s="4" t="s">
+      <c r="K321" s="1" t="s">
         <v>5526</v>
       </c>
     </row>
@@ -29465,7 +29462,7 @@
         <f t="shared" si="4"/>
         <v>435</v>
       </c>
-      <c r="K322" s="4" t="s">
+      <c r="K322" s="1" t="s">
         <v>5527</v>
       </c>
     </row>
@@ -29501,7 +29498,7 @@
         <f t="shared" ref="J323:J386" si="5">LEN(I323)</f>
         <v>396</v>
       </c>
-      <c r="K323" s="4" t="s">
+      <c r="K323" s="1" t="s">
         <v>5528</v>
       </c>
     </row>
@@ -29537,7 +29534,7 @@
         <f t="shared" si="5"/>
         <v>409</v>
       </c>
-      <c r="K324" s="4" t="s">
+      <c r="K324" s="1" t="s">
         <v>5529</v>
       </c>
     </row>
@@ -29573,7 +29570,7 @@
         <f t="shared" si="5"/>
         <v>390</v>
       </c>
-      <c r="K325" s="4" t="s">
+      <c r="K325" s="1" t="s">
         <v>5530</v>
       </c>
     </row>
@@ -29609,7 +29606,7 @@
         <f t="shared" si="5"/>
         <v>362</v>
       </c>
-      <c r="K326" s="4" t="s">
+      <c r="K326" s="1" t="s">
         <v>5531</v>
       </c>
     </row>
@@ -29645,7 +29642,7 @@
         <f t="shared" si="5"/>
         <v>379</v>
       </c>
-      <c r="K327" s="4" t="s">
+      <c r="K327" s="1" t="s">
         <v>5532</v>
       </c>
     </row>
@@ -29681,7 +29678,7 @@
         <f t="shared" si="5"/>
         <v>315</v>
       </c>
-      <c r="K328" s="4" t="s">
+      <c r="K328" s="1" t="s">
         <v>5533</v>
       </c>
     </row>
@@ -29717,7 +29714,7 @@
         <f t="shared" si="5"/>
         <v>326</v>
       </c>
-      <c r="K329" s="4" t="s">
+      <c r="K329" s="1" t="s">
         <v>5534</v>
       </c>
     </row>
@@ -29753,7 +29750,7 @@
         <f t="shared" si="5"/>
         <v>315</v>
       </c>
-      <c r="K330" s="4" t="s">
+      <c r="K330" s="1" t="s">
         <v>5535</v>
       </c>
     </row>
@@ -29789,7 +29786,7 @@
         <f t="shared" si="5"/>
         <v>300</v>
       </c>
-      <c r="K331" s="4" t="s">
+      <c r="K331" s="1" t="s">
         <v>5536</v>
       </c>
     </row>
@@ -29825,7 +29822,7 @@
         <f t="shared" si="5"/>
         <v>324</v>
       </c>
-      <c r="K332" s="4" t="s">
+      <c r="K332" s="1" t="s">
         <v>5537</v>
       </c>
     </row>
@@ -29861,7 +29858,7 @@
         <f t="shared" si="5"/>
         <v>300</v>
       </c>
-      <c r="K333" s="4" t="s">
+      <c r="K333" s="1" t="s">
         <v>5538</v>
       </c>
     </row>
@@ -29897,7 +29894,7 @@
         <f t="shared" si="5"/>
         <v>285</v>
       </c>
-      <c r="K334" s="4" t="s">
+      <c r="K334" s="1" t="s">
         <v>5539</v>
       </c>
     </row>
@@ -29933,7 +29930,7 @@
         <f t="shared" si="5"/>
         <v>271</v>
       </c>
-      <c r="K335" s="4" t="s">
+      <c r="K335" s="1" t="s">
         <v>5540</v>
       </c>
     </row>
@@ -29969,7 +29966,7 @@
         <f t="shared" si="5"/>
         <v>272</v>
       </c>
-      <c r="K336" s="4" t="s">
+      <c r="K336" s="1" t="s">
         <v>5541</v>
       </c>
     </row>
@@ -30005,7 +30002,7 @@
         <f t="shared" si="5"/>
         <v>293</v>
       </c>
-      <c r="K337" s="4" t="s">
+      <c r="K337" s="1" t="s">
         <v>5542</v>
       </c>
     </row>
@@ -30041,7 +30038,7 @@
         <f t="shared" si="5"/>
         <v>266</v>
       </c>
-      <c r="K338" s="4" t="s">
+      <c r="K338" s="1" t="s">
         <v>5543</v>
       </c>
     </row>
@@ -30077,7 +30074,7 @@
         <f t="shared" si="5"/>
         <v>281</v>
       </c>
-      <c r="K339" s="4" t="s">
+      <c r="K339" s="1" t="s">
         <v>5544</v>
       </c>
     </row>
@@ -30113,7 +30110,7 @@
         <f t="shared" si="5"/>
         <v>238</v>
       </c>
-      <c r="K340" s="4" t="s">
+      <c r="K340" s="1" t="s">
         <v>5545</v>
       </c>
     </row>
@@ -30149,7 +30146,7 @@
         <f t="shared" si="5"/>
         <v>249</v>
       </c>
-      <c r="K341" s="4" t="s">
+      <c r="K341" s="1" t="s">
         <v>5546</v>
       </c>
     </row>
@@ -30185,7 +30182,7 @@
         <f t="shared" si="5"/>
         <v>387</v>
       </c>
-      <c r="K342" s="4" t="s">
+      <c r="K342" s="1" t="s">
         <v>5547</v>
       </c>
     </row>
@@ -30221,7 +30218,7 @@
         <f t="shared" si="5"/>
         <v>356</v>
       </c>
-      <c r="K343" s="4" t="s">
+      <c r="K343" s="1" t="s">
         <v>5548</v>
       </c>
     </row>
@@ -30257,7 +30254,7 @@
         <f t="shared" si="5"/>
         <v>328</v>
       </c>
-      <c r="K344" s="4" t="s">
+      <c r="K344" s="1" t="s">
         <v>5549</v>
       </c>
     </row>
@@ -30293,7 +30290,7 @@
         <f t="shared" si="5"/>
         <v>291</v>
       </c>
-      <c r="K345" s="4" t="s">
+      <c r="K345" s="1" t="s">
         <v>5550</v>
       </c>
     </row>
@@ -30329,7 +30326,7 @@
         <f t="shared" si="5"/>
         <v>363</v>
       </c>
-      <c r="K346" s="4" t="s">
+      <c r="K346" s="1" t="s">
         <v>5551</v>
       </c>
     </row>
@@ -30365,7 +30362,7 @@
         <f t="shared" si="5"/>
         <v>340</v>
       </c>
-      <c r="K347" s="4" t="s">
+      <c r="K347" s="1" t="s">
         <v>5552</v>
       </c>
     </row>
@@ -30401,7 +30398,7 @@
         <f t="shared" si="5"/>
         <v>266</v>
       </c>
-      <c r="K348" s="4" t="s">
+      <c r="K348" s="1" t="s">
         <v>5553</v>
       </c>
     </row>
@@ -30437,7 +30434,7 @@
         <f t="shared" si="5"/>
         <v>342</v>
       </c>
-      <c r="K349" s="4" t="s">
+      <c r="K349" s="1" t="s">
         <v>5554</v>
       </c>
     </row>
@@ -30473,7 +30470,7 @@
         <f t="shared" si="5"/>
         <v>335</v>
       </c>
-      <c r="K350" s="4" t="s">
+      <c r="K350" s="1" t="s">
         <v>5555</v>
       </c>
     </row>
@@ -30509,7 +30506,7 @@
         <f t="shared" si="5"/>
         <v>313</v>
       </c>
-      <c r="K351" s="4" t="s">
+      <c r="K351" s="1" t="s">
         <v>5556</v>
       </c>
     </row>
@@ -30545,7 +30542,7 @@
         <f t="shared" si="5"/>
         <v>409</v>
       </c>
-      <c r="K352" s="4" t="s">
+      <c r="K352" s="1" t="s">
         <v>5557</v>
       </c>
     </row>
@@ -30581,7 +30578,7 @@
         <f t="shared" si="5"/>
         <v>434</v>
       </c>
-      <c r="K353" s="4" t="s">
+      <c r="K353" s="1" t="s">
         <v>5558</v>
       </c>
     </row>
@@ -30617,7 +30614,7 @@
         <f t="shared" si="5"/>
         <v>383</v>
       </c>
-      <c r="K354" s="4" t="s">
+      <c r="K354" s="1" t="s">
         <v>5559</v>
       </c>
     </row>
@@ -30653,7 +30650,7 @@
         <f t="shared" si="5"/>
         <v>324</v>
       </c>
-      <c r="K355" s="4" t="s">
+      <c r="K355" s="1" t="s">
         <v>5560</v>
       </c>
     </row>
@@ -30689,7 +30686,7 @@
         <f t="shared" si="5"/>
         <v>360</v>
       </c>
-      <c r="K356" s="4" t="s">
+      <c r="K356" s="1" t="s">
         <v>5561</v>
       </c>
     </row>
@@ -30725,7 +30722,7 @@
         <f t="shared" si="5"/>
         <v>361</v>
       </c>
-      <c r="K357" s="4" t="s">
+      <c r="K357" s="1" t="s">
         <v>5562</v>
       </c>
     </row>
@@ -30761,7 +30758,7 @@
         <f t="shared" si="5"/>
         <v>393</v>
       </c>
-      <c r="K358" s="4" t="s">
+      <c r="K358" s="1" t="s">
         <v>5563</v>
       </c>
     </row>
@@ -30797,7 +30794,7 @@
         <f t="shared" si="5"/>
         <v>318</v>
       </c>
-      <c r="K359" s="4" t="s">
+      <c r="K359" s="1" t="s">
         <v>5564</v>
       </c>
     </row>
@@ -30833,7 +30830,7 @@
         <f t="shared" si="5"/>
         <v>304</v>
       </c>
-      <c r="K360" s="4" t="s">
+      <c r="K360" s="1" t="s">
         <v>5565</v>
       </c>
     </row>
@@ -30869,7 +30866,7 @@
         <f t="shared" si="5"/>
         <v>384</v>
       </c>
-      <c r="K361" s="4" t="s">
+      <c r="K361" s="1" t="s">
         <v>5566</v>
       </c>
     </row>
@@ -30905,7 +30902,7 @@
         <f t="shared" si="5"/>
         <v>405</v>
       </c>
-      <c r="K362" s="4" t="s">
+      <c r="K362" s="1" t="s">
         <v>5567</v>
       </c>
     </row>
@@ -30941,7 +30938,7 @@
         <f t="shared" si="5"/>
         <v>420</v>
       </c>
-      <c r="K363" s="4" t="s">
+      <c r="K363" s="1" t="s">
         <v>5568</v>
       </c>
     </row>
@@ -30977,7 +30974,7 @@
         <f t="shared" si="5"/>
         <v>333</v>
       </c>
-      <c r="K364" s="4" t="s">
+      <c r="K364" s="1" t="s">
         <v>5569</v>
       </c>
     </row>
@@ -31013,7 +31010,7 @@
         <f t="shared" si="5"/>
         <v>367</v>
       </c>
-      <c r="K365" s="4" t="s">
+      <c r="K365" s="1" t="s">
         <v>5570</v>
       </c>
     </row>
@@ -31049,7 +31046,7 @@
         <f t="shared" si="5"/>
         <v>345</v>
       </c>
-      <c r="K366" s="4" t="s">
+      <c r="K366" s="1" t="s">
         <v>5571</v>
       </c>
     </row>
@@ -31085,7 +31082,7 @@
         <f t="shared" si="5"/>
         <v>362</v>
       </c>
-      <c r="K367" s="4" t="s">
+      <c r="K367" s="1" t="s">
         <v>5572</v>
       </c>
     </row>
@@ -31121,7 +31118,7 @@
         <f t="shared" si="5"/>
         <v>283</v>
       </c>
-      <c r="K368" s="4" t="s">
+      <c r="K368" s="1" t="s">
         <v>5573</v>
       </c>
     </row>
@@ -31157,7 +31154,7 @@
         <f t="shared" si="5"/>
         <v>360</v>
       </c>
-      <c r="K369" s="4" t="s">
+      <c r="K369" s="1" t="s">
         <v>5574</v>
       </c>
     </row>
@@ -31193,7 +31190,7 @@
         <f t="shared" si="5"/>
         <v>320</v>
       </c>
-      <c r="K370" s="4" t="s">
+      <c r="K370" s="1" t="s">
         <v>5575</v>
       </c>
     </row>
@@ -31229,7 +31226,7 @@
         <f t="shared" si="5"/>
         <v>327</v>
       </c>
-      <c r="K371" s="4" t="s">
+      <c r="K371" s="1" t="s">
         <v>5576</v>
       </c>
     </row>
@@ -31265,7 +31262,7 @@
         <f t="shared" si="5"/>
         <v>385</v>
       </c>
-      <c r="K372" s="4" t="s">
+      <c r="K372" s="1" t="s">
         <v>5577</v>
       </c>
     </row>
@@ -31301,7 +31298,7 @@
         <f t="shared" si="5"/>
         <v>330</v>
       </c>
-      <c r="K373" s="4" t="s">
+      <c r="K373" s="1" t="s">
         <v>5578</v>
       </c>
     </row>
@@ -31337,7 +31334,7 @@
         <f t="shared" si="5"/>
         <v>295</v>
       </c>
-      <c r="K374" s="4" t="s">
+      <c r="K374" s="1" t="s">
         <v>5579</v>
       </c>
     </row>
@@ -31373,7 +31370,7 @@
         <f t="shared" si="5"/>
         <v>291</v>
       </c>
-      <c r="K375" s="4" t="s">
+      <c r="K375" s="1" t="s">
         <v>5580</v>
       </c>
     </row>
@@ -31409,7 +31406,7 @@
         <f t="shared" si="5"/>
         <v>306</v>
       </c>
-      <c r="K376" s="4" t="s">
+      <c r="K376" s="1" t="s">
         <v>5581</v>
       </c>
     </row>
@@ -31445,7 +31442,7 @@
         <f t="shared" si="5"/>
         <v>318</v>
       </c>
-      <c r="K377" s="4" t="s">
+      <c r="K377" s="1" t="s">
         <v>5582</v>
       </c>
     </row>
@@ -31481,7 +31478,7 @@
         <f t="shared" si="5"/>
         <v>289</v>
       </c>
-      <c r="K378" s="4" t="s">
+      <c r="K378" s="1" t="s">
         <v>5583</v>
       </c>
     </row>
@@ -31517,7 +31514,7 @@
         <f t="shared" si="5"/>
         <v>342</v>
       </c>
-      <c r="K379" s="4" t="s">
+      <c r="K379" s="1" t="s">
         <v>5584</v>
       </c>
     </row>
@@ -31553,7 +31550,7 @@
         <f t="shared" si="5"/>
         <v>286</v>
       </c>
-      <c r="K380" s="4" t="s">
+      <c r="K380" s="1" t="s">
         <v>5585</v>
       </c>
     </row>
@@ -31589,7 +31586,7 @@
         <f t="shared" si="5"/>
         <v>319</v>
       </c>
-      <c r="K381" s="4" t="s">
+      <c r="K381" s="1" t="s">
         <v>5586</v>
       </c>
     </row>
@@ -31625,7 +31622,7 @@
         <f t="shared" si="5"/>
         <v>468</v>
       </c>
-      <c r="K382" s="4" t="s">
+      <c r="K382" s="1" t="s">
         <v>5587</v>
       </c>
     </row>
@@ -31661,7 +31658,7 @@
         <f t="shared" si="5"/>
         <v>371</v>
       </c>
-      <c r="K383" s="4" t="s">
+      <c r="K383" s="1" t="s">
         <v>5588</v>
       </c>
     </row>
@@ -31697,7 +31694,7 @@
         <f t="shared" si="5"/>
         <v>366</v>
       </c>
-      <c r="K384" s="4" t="s">
+      <c r="K384" s="1" t="s">
         <v>5589</v>
       </c>
     </row>
@@ -31733,7 +31730,7 @@
         <f t="shared" si="5"/>
         <v>401</v>
       </c>
-      <c r="K385" s="4" t="s">
+      <c r="K385" s="1" t="s">
         <v>5590</v>
       </c>
     </row>
@@ -31769,7 +31766,7 @@
         <f t="shared" si="5"/>
         <v>377</v>
       </c>
-      <c r="K386" s="4" t="s">
+      <c r="K386" s="1" t="s">
         <v>5591</v>
       </c>
     </row>
@@ -31805,7 +31802,7 @@
         <f t="shared" ref="J387:J450" si="6">LEN(I387)</f>
         <v>370</v>
       </c>
-      <c r="K387" s="4" t="s">
+      <c r="K387" s="1" t="s">
         <v>5592</v>
       </c>
     </row>
@@ -31841,7 +31838,7 @@
         <f t="shared" si="6"/>
         <v>358</v>
       </c>
-      <c r="K388" s="4" t="s">
+      <c r="K388" s="1" t="s">
         <v>5593</v>
       </c>
     </row>
@@ -31877,7 +31874,7 @@
         <f t="shared" si="6"/>
         <v>309</v>
       </c>
-      <c r="K389" s="4" t="s">
+      <c r="K389" s="1" t="s">
         <v>5594</v>
       </c>
     </row>
@@ -31913,7 +31910,7 @@
         <f t="shared" si="6"/>
         <v>389</v>
       </c>
-      <c r="K390" s="4" t="s">
+      <c r="K390" s="1" t="s">
         <v>5595</v>
       </c>
     </row>
@@ -31949,7 +31946,7 @@
         <f t="shared" si="6"/>
         <v>367</v>
       </c>
-      <c r="K391" s="4" t="s">
+      <c r="K391" s="1" t="s">
         <v>5596</v>
       </c>
     </row>
@@ -31985,7 +31982,7 @@
         <f t="shared" si="6"/>
         <v>376</v>
       </c>
-      <c r="K392" s="4" t="s">
+      <c r="K392" s="1" t="s">
         <v>5597</v>
       </c>
     </row>
@@ -32021,7 +32018,7 @@
         <f t="shared" si="6"/>
         <v>324</v>
       </c>
-      <c r="K393" s="4" t="s">
+      <c r="K393" s="1" t="s">
         <v>5598</v>
       </c>
     </row>
@@ -32057,7 +32054,7 @@
         <f t="shared" si="6"/>
         <v>288</v>
       </c>
-      <c r="K394" s="4" t="s">
+      <c r="K394" s="1" t="s">
         <v>5599</v>
       </c>
     </row>
@@ -32093,7 +32090,7 @@
         <f t="shared" si="6"/>
         <v>289</v>
       </c>
-      <c r="K395" s="4" t="s">
+      <c r="K395" s="1" t="s">
         <v>5600</v>
       </c>
     </row>
@@ -32129,7 +32126,7 @@
         <f t="shared" si="6"/>
         <v>242</v>
       </c>
-      <c r="K396" s="4" t="s">
+      <c r="K396" s="1" t="s">
         <v>5601</v>
       </c>
     </row>
@@ -32165,7 +32162,7 @@
         <f t="shared" si="6"/>
         <v>269</v>
       </c>
-      <c r="K397" s="4" t="s">
+      <c r="K397" s="1" t="s">
         <v>5602</v>
       </c>
     </row>
@@ -32201,7 +32198,7 @@
         <f t="shared" si="6"/>
         <v>258</v>
       </c>
-      <c r="K398" s="4" t="s">
+      <c r="K398" s="1" t="s">
         <v>5603</v>
       </c>
     </row>
@@ -32237,7 +32234,7 @@
         <f t="shared" si="6"/>
         <v>334</v>
       </c>
-      <c r="K399" s="4" t="s">
+      <c r="K399" s="1" t="s">
         <v>5604</v>
       </c>
     </row>
@@ -32273,7 +32270,7 @@
         <f t="shared" si="6"/>
         <v>282</v>
       </c>
-      <c r="K400" s="4" t="s">
+      <c r="K400" s="1" t="s">
         <v>5605</v>
       </c>
     </row>
@@ -32309,7 +32306,7 @@
         <f t="shared" si="6"/>
         <v>304</v>
       </c>
-      <c r="K401" s="4" t="s">
+      <c r="K401" s="1" t="s">
         <v>5606</v>
       </c>
     </row>
@@ -32345,7 +32342,7 @@
         <f t="shared" si="6"/>
         <v>436</v>
       </c>
-      <c r="K402" s="4" t="s">
+      <c r="K402" s="1" t="s">
         <v>5607</v>
       </c>
     </row>
@@ -32381,7 +32378,7 @@
         <f t="shared" si="6"/>
         <v>376</v>
       </c>
-      <c r="K403" s="4" t="s">
+      <c r="K403" s="1" t="s">
         <v>5608</v>
       </c>
     </row>
@@ -32417,7 +32414,7 @@
         <f t="shared" si="6"/>
         <v>379</v>
       </c>
-      <c r="K404" s="4" t="s">
+      <c r="K404" s="1" t="s">
         <v>5609</v>
       </c>
     </row>
@@ -32453,7 +32450,7 @@
         <f t="shared" si="6"/>
         <v>334</v>
       </c>
-      <c r="K405" s="4" t="s">
+      <c r="K405" s="1" t="s">
         <v>5610</v>
       </c>
     </row>
@@ -32489,7 +32486,7 @@
         <f t="shared" si="6"/>
         <v>321</v>
       </c>
-      <c r="K406" s="4" t="s">
+      <c r="K406" s="1" t="s">
         <v>5611</v>
       </c>
     </row>
@@ -32525,7 +32522,7 @@
         <f t="shared" si="6"/>
         <v>303</v>
       </c>
-      <c r="K407" s="4" t="s">
+      <c r="K407" s="1" t="s">
         <v>5612</v>
       </c>
     </row>
@@ -32561,7 +32558,7 @@
         <f t="shared" si="6"/>
         <v>295</v>
       </c>
-      <c r="K408" s="4" t="s">
+      <c r="K408" s="1" t="s">
         <v>5613</v>
       </c>
     </row>
@@ -32597,7 +32594,7 @@
         <f t="shared" si="6"/>
         <v>297</v>
       </c>
-      <c r="K409" s="4" t="s">
+      <c r="K409" s="1" t="s">
         <v>5614</v>
       </c>
     </row>
@@ -32633,7 +32630,7 @@
         <f t="shared" si="6"/>
         <v>285</v>
       </c>
-      <c r="K410" s="4" t="s">
+      <c r="K410" s="1" t="s">
         <v>5615</v>
       </c>
     </row>
@@ -32669,7 +32666,7 @@
         <f t="shared" si="6"/>
         <v>367</v>
       </c>
-      <c r="K411" s="4" t="s">
+      <c r="K411" s="1" t="s">
         <v>5616</v>
       </c>
     </row>
@@ -32705,7 +32702,7 @@
         <f t="shared" si="6"/>
         <v>392</v>
       </c>
-      <c r="K412" s="4" t="s">
+      <c r="K412" s="1" t="s">
         <v>5617</v>
       </c>
     </row>
@@ -32741,7 +32738,7 @@
         <f t="shared" si="6"/>
         <v>345</v>
       </c>
-      <c r="K413" s="4" t="s">
+      <c r="K413" s="1" t="s">
         <v>5618</v>
       </c>
     </row>
@@ -32777,7 +32774,7 @@
         <f t="shared" si="6"/>
         <v>323</v>
       </c>
-      <c r="K414" s="4" t="s">
+      <c r="K414" s="1" t="s">
         <v>5619</v>
       </c>
     </row>
@@ -32813,7 +32810,7 @@
         <f t="shared" si="6"/>
         <v>307</v>
       </c>
-      <c r="K415" s="4" t="s">
+      <c r="K415" s="1" t="s">
         <v>5620</v>
       </c>
     </row>
@@ -32849,7 +32846,7 @@
         <f t="shared" si="6"/>
         <v>346</v>
       </c>
-      <c r="K416" s="4" t="s">
+      <c r="K416" s="1" t="s">
         <v>5621</v>
       </c>
     </row>
@@ -32885,7 +32882,7 @@
         <f t="shared" si="6"/>
         <v>305</v>
       </c>
-      <c r="K417" s="4" t="s">
+      <c r="K417" s="1" t="s">
         <v>5622</v>
       </c>
     </row>
@@ -32921,7 +32918,7 @@
         <f t="shared" si="6"/>
         <v>284</v>
       </c>
-      <c r="K418" s="4" t="s">
+      <c r="K418" s="1" t="s">
         <v>5623</v>
       </c>
     </row>
@@ -32957,7 +32954,7 @@
         <f t="shared" si="6"/>
         <v>280</v>
       </c>
-      <c r="K419" s="4" t="s">
+      <c r="K419" s="1" t="s">
         <v>5624</v>
       </c>
     </row>
@@ -32993,7 +32990,7 @@
         <f t="shared" si="6"/>
         <v>336</v>
       </c>
-      <c r="K420" s="4" t="s">
+      <c r="K420" s="1" t="s">
         <v>5625</v>
       </c>
     </row>
@@ -33029,7 +33026,7 @@
         <f t="shared" si="6"/>
         <v>311</v>
       </c>
-      <c r="K421" s="4" t="s">
+      <c r="K421" s="1" t="s">
         <v>5626</v>
       </c>
     </row>
@@ -33065,7 +33062,7 @@
         <f t="shared" si="6"/>
         <v>401</v>
       </c>
-      <c r="K422" s="4" t="s">
+      <c r="K422" s="1" t="s">
         <v>5627</v>
       </c>
     </row>
@@ -33101,7 +33098,7 @@
         <f t="shared" si="6"/>
         <v>356</v>
       </c>
-      <c r="K423" s="4" t="s">
+      <c r="K423" s="1" t="s">
         <v>5628</v>
       </c>
     </row>
@@ -33137,7 +33134,7 @@
         <f t="shared" si="6"/>
         <v>335</v>
       </c>
-      <c r="K424" s="4" t="s">
+      <c r="K424" s="1" t="s">
         <v>5629</v>
       </c>
     </row>
@@ -33173,7 +33170,7 @@
         <f t="shared" si="6"/>
         <v>332</v>
       </c>
-      <c r="K425" s="4" t="s">
+      <c r="K425" s="1" t="s">
         <v>5630</v>
       </c>
     </row>
@@ -33209,7 +33206,7 @@
         <f t="shared" si="6"/>
         <v>403</v>
       </c>
-      <c r="K426" s="4" t="s">
+      <c r="K426" s="1" t="s">
         <v>5631</v>
       </c>
     </row>
@@ -33245,7 +33242,7 @@
         <f t="shared" si="6"/>
         <v>316</v>
       </c>
-      <c r="K427" s="4" t="s">
+      <c r="K427" s="1" t="s">
         <v>5632</v>
       </c>
     </row>
@@ -33281,7 +33278,7 @@
         <f t="shared" si="6"/>
         <v>355</v>
       </c>
-      <c r="K428" s="4" t="s">
+      <c r="K428" s="1" t="s">
         <v>5633</v>
       </c>
     </row>
@@ -33317,7 +33314,7 @@
         <f t="shared" si="6"/>
         <v>322</v>
       </c>
-      <c r="K429" s="4" t="s">
+      <c r="K429" s="1" t="s">
         <v>5634</v>
       </c>
     </row>
@@ -33353,7 +33350,7 @@
         <f t="shared" si="6"/>
         <v>332</v>
       </c>
-      <c r="K430" s="4" t="s">
+      <c r="K430" s="1" t="s">
         <v>5635</v>
       </c>
     </row>
@@ -33389,7 +33386,7 @@
         <f t="shared" si="6"/>
         <v>301</v>
       </c>
-      <c r="K431" s="4" t="s">
+      <c r="K431" s="1" t="s">
         <v>5636</v>
       </c>
     </row>
@@ -33425,7 +33422,7 @@
         <f t="shared" si="6"/>
         <v>321</v>
       </c>
-      <c r="K432" s="4" t="s">
+      <c r="K432" s="1" t="s">
         <v>5637</v>
       </c>
     </row>
@@ -33461,7 +33458,7 @@
         <f t="shared" si="6"/>
         <v>339</v>
       </c>
-      <c r="K433" s="4" t="s">
+      <c r="K433" s="1" t="s">
         <v>5638</v>
       </c>
     </row>
@@ -33497,7 +33494,7 @@
         <f t="shared" si="6"/>
         <v>325</v>
       </c>
-      <c r="K434" s="4" t="s">
+      <c r="K434" s="1" t="s">
         <v>5639</v>
       </c>
     </row>
@@ -33533,7 +33530,7 @@
         <f t="shared" si="6"/>
         <v>298</v>
       </c>
-      <c r="K435" s="4" t="s">
+      <c r="K435" s="1" t="s">
         <v>5640</v>
       </c>
     </row>
@@ -33569,7 +33566,7 @@
         <f t="shared" si="6"/>
         <v>281</v>
       </c>
-      <c r="K436" s="4" t="s">
+      <c r="K436" s="1" t="s">
         <v>5641</v>
       </c>
     </row>
@@ -33605,7 +33602,7 @@
         <f t="shared" si="6"/>
         <v>264</v>
       </c>
-      <c r="K437" s="4" t="s">
+      <c r="K437" s="1" t="s">
         <v>5642</v>
       </c>
     </row>
@@ -33641,7 +33638,7 @@
         <f t="shared" si="6"/>
         <v>260</v>
       </c>
-      <c r="K438" s="4" t="s">
+      <c r="K438" s="1" t="s">
         <v>5643</v>
       </c>
     </row>
@@ -33677,7 +33674,7 @@
         <f t="shared" si="6"/>
         <v>246</v>
       </c>
-      <c r="K439" s="4" t="s">
+      <c r="K439" s="1" t="s">
         <v>5644</v>
       </c>
     </row>
@@ -33713,7 +33710,7 @@
         <f t="shared" si="6"/>
         <v>247</v>
       </c>
-      <c r="K440" s="4" t="s">
+      <c r="K440" s="1" t="s">
         <v>5645</v>
       </c>
     </row>
@@ -33749,7 +33746,7 @@
         <f t="shared" si="6"/>
         <v>312</v>
       </c>
-      <c r="K441" s="4" t="s">
+      <c r="K441" s="1" t="s">
         <v>5646</v>
       </c>
     </row>
@@ -33785,7 +33782,7 @@
         <f t="shared" si="6"/>
         <v>393</v>
       </c>
-      <c r="K442" s="4" t="s">
+      <c r="K442" s="1" t="s">
         <v>5647</v>
       </c>
     </row>
@@ -33821,7 +33818,7 @@
         <f t="shared" si="6"/>
         <v>341</v>
       </c>
-      <c r="K443" s="4" t="s">
+      <c r="K443" s="1" t="s">
         <v>5648</v>
       </c>
     </row>
@@ -33857,7 +33854,7 @@
         <f t="shared" si="6"/>
         <v>323</v>
       </c>
-      <c r="K444" s="4" t="s">
+      <c r="K444" s="1" t="s">
         <v>5649</v>
       </c>
     </row>
@@ -33893,7 +33890,7 @@
         <f t="shared" si="6"/>
         <v>281</v>
       </c>
-      <c r="K445" s="4" t="s">
+      <c r="K445" s="1" t="s">
         <v>5650</v>
       </c>
     </row>
@@ -33929,7 +33926,7 @@
         <f t="shared" si="6"/>
         <v>262</v>
       </c>
-      <c r="K446" s="4" t="s">
+      <c r="K446" s="1" t="s">
         <v>5651</v>
       </c>
     </row>
@@ -33965,7 +33962,7 @@
         <f t="shared" si="6"/>
         <v>221</v>
       </c>
-      <c r="K447" s="4" t="s">
+      <c r="K447" s="1" t="s">
         <v>5652</v>
       </c>
     </row>
@@ -34001,7 +33998,7 @@
         <f t="shared" si="6"/>
         <v>286</v>
       </c>
-      <c r="K448" s="4" t="s">
+      <c r="K448" s="1" t="s">
         <v>5653</v>
       </c>
     </row>
@@ -34037,7 +34034,7 @@
         <f t="shared" si="6"/>
         <v>258</v>
       </c>
-      <c r="K449" s="4" t="s">
+      <c r="K449" s="1" t="s">
         <v>5654</v>
       </c>
     </row>
@@ -34073,7 +34070,7 @@
         <f t="shared" si="6"/>
         <v>265</v>
       </c>
-      <c r="K450" s="4" t="s">
+      <c r="K450" s="1" t="s">
         <v>5655</v>
       </c>
     </row>
@@ -34109,7 +34106,7 @@
         <f t="shared" ref="J451:J514" si="7">LEN(I451)</f>
         <v>301</v>
       </c>
-      <c r="K451" s="4" t="s">
+      <c r="K451" s="1" t="s">
         <v>5656</v>
       </c>
     </row>
@@ -34145,7 +34142,7 @@
         <f t="shared" si="7"/>
         <v>339</v>
       </c>
-      <c r="K452" s="4" t="s">
+      <c r="K452" s="1" t="s">
         <v>5657</v>
       </c>
     </row>
@@ -34181,7 +34178,7 @@
         <f t="shared" si="7"/>
         <v>336</v>
       </c>
-      <c r="K453" s="4" t="s">
+      <c r="K453" s="1" t="s">
         <v>5658</v>
       </c>
     </row>
@@ -34217,7 +34214,7 @@
         <f t="shared" si="7"/>
         <v>307</v>
       </c>
-      <c r="K454" s="4" t="s">
+      <c r="K454" s="1" t="s">
         <v>5659</v>
       </c>
     </row>
@@ -34253,7 +34250,7 @@
         <f t="shared" si="7"/>
         <v>296</v>
       </c>
-      <c r="K455" s="4" t="s">
+      <c r="K455" s="1" t="s">
         <v>5660</v>
       </c>
     </row>
@@ -34289,7 +34286,7 @@
         <f t="shared" si="7"/>
         <v>304</v>
       </c>
-      <c r="K456" s="4" t="s">
+      <c r="K456" s="1" t="s">
         <v>5661</v>
       </c>
     </row>
@@ -34325,7 +34322,7 @@
         <f t="shared" si="7"/>
         <v>289</v>
       </c>
-      <c r="K457" s="4" t="s">
+      <c r="K457" s="1" t="s">
         <v>5662</v>
       </c>
     </row>
@@ -34361,7 +34358,7 @@
         <f t="shared" si="7"/>
         <v>275</v>
       </c>
-      <c r="K458" s="4" t="s">
+      <c r="K458" s="1" t="s">
         <v>5663</v>
       </c>
     </row>
@@ -34397,7 +34394,7 @@
         <f t="shared" si="7"/>
         <v>258</v>
       </c>
-      <c r="K459" s="4" t="s">
+      <c r="K459" s="1" t="s">
         <v>5664</v>
       </c>
     </row>
@@ -34433,7 +34430,7 @@
         <f t="shared" si="7"/>
         <v>260</v>
       </c>
-      <c r="K460" s="4" t="s">
+      <c r="K460" s="1" t="s">
         <v>5665</v>
       </c>
     </row>
@@ -34469,7 +34466,7 @@
         <f t="shared" si="7"/>
         <v>300</v>
       </c>
-      <c r="K461" s="4" t="s">
+      <c r="K461" s="1" t="s">
         <v>5666</v>
       </c>
     </row>
@@ -34505,7 +34502,7 @@
         <f t="shared" si="7"/>
         <v>335</v>
       </c>
-      <c r="K462" s="4" t="s">
+      <c r="K462" s="1" t="s">
         <v>5667</v>
       </c>
     </row>
@@ -34541,7 +34538,7 @@
         <f t="shared" si="7"/>
         <v>306</v>
       </c>
-      <c r="K463" s="4" t="s">
+      <c r="K463" s="1" t="s">
         <v>5668</v>
       </c>
     </row>
@@ -34577,7 +34574,7 @@
         <f t="shared" si="7"/>
         <v>303</v>
       </c>
-      <c r="K464" s="4" t="s">
+      <c r="K464" s="1" t="s">
         <v>5669</v>
       </c>
     </row>
@@ -34613,7 +34610,7 @@
         <f t="shared" si="7"/>
         <v>292</v>
       </c>
-      <c r="K465" s="4" t="s">
+      <c r="K465" s="1" t="s">
         <v>5670</v>
       </c>
     </row>
@@ -34649,7 +34646,7 @@
         <f t="shared" si="7"/>
         <v>282</v>
       </c>
-      <c r="K466" s="4" t="s">
+      <c r="K466" s="1" t="s">
         <v>5671</v>
       </c>
     </row>
@@ -34685,7 +34682,7 @@
         <f t="shared" si="7"/>
         <v>272</v>
       </c>
-      <c r="K467" s="4" t="s">
+      <c r="K467" s="1" t="s">
         <v>5672</v>
       </c>
     </row>
@@ -34721,7 +34718,7 @@
         <f t="shared" si="7"/>
         <v>326</v>
       </c>
-      <c r="K468" s="4" t="s">
+      <c r="K468" s="1" t="s">
         <v>5673</v>
       </c>
     </row>
@@ -34757,7 +34754,7 @@
         <f t="shared" si="7"/>
         <v>266</v>
       </c>
-      <c r="K469" s="4" t="s">
+      <c r="K469" s="1" t="s">
         <v>5674</v>
       </c>
     </row>
@@ -34793,7 +34790,7 @@
         <f t="shared" si="7"/>
         <v>287</v>
       </c>
-      <c r="K470" s="4" t="s">
+      <c r="K470" s="1" t="s">
         <v>5675</v>
       </c>
     </row>
@@ -34829,7 +34826,7 @@
         <f t="shared" si="7"/>
         <v>274</v>
       </c>
-      <c r="K471" s="4" t="s">
+      <c r="K471" s="1" t="s">
         <v>5676</v>
       </c>
     </row>
@@ -34865,7 +34862,7 @@
         <f t="shared" si="7"/>
         <v>334</v>
       </c>
-      <c r="K472" s="4" t="s">
+      <c r="K472" s="1" t="s">
         <v>5677</v>
       </c>
     </row>
@@ -34901,7 +34898,7 @@
         <f t="shared" si="7"/>
         <v>324</v>
       </c>
-      <c r="K473" s="4" t="s">
+      <c r="K473" s="1" t="s">
         <v>5678</v>
       </c>
     </row>
@@ -34937,7 +34934,7 @@
         <f t="shared" si="7"/>
         <v>296</v>
       </c>
-      <c r="K474" s="4" t="s">
+      <c r="K474" s="1" t="s">
         <v>5679</v>
       </c>
     </row>
@@ -34973,7 +34970,7 @@
         <f t="shared" si="7"/>
         <v>323</v>
       </c>
-      <c r="K475" s="4" t="s">
+      <c r="K475" s="1" t="s">
         <v>5680</v>
       </c>
     </row>
@@ -35009,7 +35006,7 @@
         <f t="shared" si="7"/>
         <v>306</v>
       </c>
-      <c r="K476" s="4" t="s">
+      <c r="K476" s="1" t="s">
         <v>5681</v>
       </c>
     </row>
@@ -35045,7 +35042,7 @@
         <f t="shared" si="7"/>
         <v>285</v>
       </c>
-      <c r="K477" s="4" t="s">
+      <c r="K477" s="1" t="s">
         <v>5682</v>
       </c>
     </row>
@@ -35081,7 +35078,7 @@
         <f t="shared" si="7"/>
         <v>262</v>
       </c>
-      <c r="K478" s="4" t="s">
+      <c r="K478" s="1" t="s">
         <v>5683</v>
       </c>
     </row>
@@ -35117,7 +35114,7 @@
         <f t="shared" si="7"/>
         <v>301</v>
       </c>
-      <c r="K479" s="4" t="s">
+      <c r="K479" s="1" t="s">
         <v>5684</v>
       </c>
     </row>
@@ -35153,7 +35150,7 @@
         <f t="shared" si="7"/>
         <v>272</v>
       </c>
-      <c r="K480" s="4" t="s">
+      <c r="K480" s="1" t="s">
         <v>5685</v>
       </c>
     </row>
@@ -35189,7 +35186,7 @@
         <f t="shared" si="7"/>
         <v>302</v>
       </c>
-      <c r="K481" s="4" t="s">
+      <c r="K481" s="1" t="s">
         <v>5686</v>
       </c>
     </row>
@@ -35225,7 +35222,7 @@
         <f t="shared" si="7"/>
         <v>430</v>
       </c>
-      <c r="K482" s="4" t="s">
+      <c r="K482" s="1" t="s">
         <v>5687</v>
       </c>
     </row>
@@ -35261,7 +35258,7 @@
         <f t="shared" si="7"/>
         <v>363</v>
       </c>
-      <c r="K483" s="4" t="s">
+      <c r="K483" s="1" t="s">
         <v>5688</v>
       </c>
     </row>
@@ -35297,7 +35294,7 @@
         <f t="shared" si="7"/>
         <v>311</v>
       </c>
-      <c r="K484" s="4" t="s">
+      <c r="K484" s="1" t="s">
         <v>5689</v>
       </c>
     </row>
@@ -35333,7 +35330,7 @@
         <f t="shared" si="7"/>
         <v>315</v>
       </c>
-      <c r="K485" s="4" t="s">
+      <c r="K485" s="1" t="s">
         <v>5690</v>
       </c>
     </row>
@@ -35369,7 +35366,7 @@
         <f t="shared" si="7"/>
         <v>319</v>
       </c>
-      <c r="K486" s="4" t="s">
+      <c r="K486" s="1" t="s">
         <v>5691</v>
       </c>
     </row>
@@ -35405,7 +35402,7 @@
         <f t="shared" si="7"/>
         <v>309</v>
       </c>
-      <c r="K487" s="4" t="s">
+      <c r="K487" s="1" t="s">
         <v>5692</v>
       </c>
     </row>
@@ -35441,7 +35438,7 @@
         <f t="shared" si="7"/>
         <v>277</v>
       </c>
-      <c r="K488" s="4" t="s">
+      <c r="K488" s="1" t="s">
         <v>5693</v>
       </c>
     </row>
@@ -35477,7 +35474,7 @@
         <f t="shared" si="7"/>
         <v>275</v>
       </c>
-      <c r="K489" s="4" t="s">
+      <c r="K489" s="1" t="s">
         <v>5694</v>
       </c>
     </row>
@@ -35513,7 +35510,7 @@
         <f t="shared" si="7"/>
         <v>287</v>
       </c>
-      <c r="K490" s="4" t="s">
+      <c r="K490" s="1" t="s">
         <v>5695</v>
       </c>
     </row>
@@ -35549,7 +35546,7 @@
         <f t="shared" si="7"/>
         <v>238</v>
       </c>
-      <c r="K491" s="4" t="s">
+      <c r="K491" s="1" t="s">
         <v>5696</v>
       </c>
     </row>
@@ -35585,7 +35582,7 @@
         <f t="shared" si="7"/>
         <v>325</v>
       </c>
-      <c r="K492" s="4" t="s">
+      <c r="K492" s="1" t="s">
         <v>5697</v>
       </c>
     </row>
@@ -35621,7 +35618,7 @@
         <f t="shared" si="7"/>
         <v>311</v>
       </c>
-      <c r="K493" s="4" t="s">
+      <c r="K493" s="1" t="s">
         <v>5698</v>
       </c>
     </row>
@@ -35657,7 +35654,7 @@
         <f t="shared" si="7"/>
         <v>272</v>
       </c>
-      <c r="K494" s="4" t="s">
+      <c r="K494" s="1" t="s">
         <v>5699</v>
       </c>
     </row>
@@ -35693,7 +35690,7 @@
         <f t="shared" si="7"/>
         <v>290</v>
       </c>
-      <c r="K495" s="4" t="s">
+      <c r="K495" s="1" t="s">
         <v>5700</v>
       </c>
     </row>
@@ -35729,7 +35726,7 @@
         <f t="shared" si="7"/>
         <v>274</v>
       </c>
-      <c r="K496" s="4" t="s">
+      <c r="K496" s="1" t="s">
         <v>5701</v>
       </c>
     </row>
@@ -35765,7 +35762,7 @@
         <f t="shared" si="7"/>
         <v>297</v>
       </c>
-      <c r="K497" s="4" t="s">
+      <c r="K497" s="1" t="s">
         <v>5702</v>
       </c>
     </row>
@@ -35801,7 +35798,7 @@
         <f t="shared" si="7"/>
         <v>281</v>
       </c>
-      <c r="K498" s="4" t="s">
+      <c r="K498" s="1" t="s">
         <v>5703</v>
       </c>
     </row>
@@ -35837,7 +35834,7 @@
         <f t="shared" si="7"/>
         <v>269</v>
       </c>
-      <c r="K499" s="4" t="s">
+      <c r="K499" s="1" t="s">
         <v>5704</v>
       </c>
     </row>
@@ -35873,7 +35870,7 @@
         <f t="shared" si="7"/>
         <v>261</v>
       </c>
-      <c r="K500" s="4" t="s">
+      <c r="K500" s="1" t="s">
         <v>5705</v>
       </c>
     </row>
@@ -35909,7 +35906,7 @@
         <f t="shared" si="7"/>
         <v>280</v>
       </c>
-      <c r="K501" s="4" t="s">
+      <c r="K501" s="1" t="s">
         <v>5706</v>
       </c>
     </row>
@@ -35945,7 +35942,7 @@
         <f t="shared" si="7"/>
         <v>399</v>
       </c>
-      <c r="K502" s="4" t="s">
+      <c r="K502" s="1" t="s">
         <v>5707</v>
       </c>
     </row>
@@ -35981,7 +35978,7 @@
         <f t="shared" si="7"/>
         <v>358</v>
       </c>
-      <c r="K503" s="4" t="s">
+      <c r="K503" s="1" t="s">
         <v>5708</v>
       </c>
     </row>
@@ -36017,7 +36014,7 @@
         <f t="shared" si="7"/>
         <v>370</v>
       </c>
-      <c r="K504" s="4" t="s">
+      <c r="K504" s="1" t="s">
         <v>5709</v>
       </c>
     </row>
@@ -36053,7 +36050,7 @@
         <f t="shared" si="7"/>
         <v>354</v>
       </c>
-      <c r="K505" s="4" t="s">
+      <c r="K505" s="1" t="s">
         <v>5710</v>
       </c>
     </row>
@@ -36089,7 +36086,7 @@
         <f t="shared" si="7"/>
         <v>307</v>
       </c>
-      <c r="K506" s="4" t="s">
+      <c r="K506" s="1" t="s">
         <v>5711</v>
       </c>
     </row>
@@ -36125,7 +36122,7 @@
         <f t="shared" si="7"/>
         <v>355</v>
       </c>
-      <c r="K507" s="4" t="s">
+      <c r="K507" s="1" t="s">
         <v>5712</v>
       </c>
     </row>
@@ -36161,7 +36158,7 @@
         <f t="shared" si="7"/>
         <v>390</v>
       </c>
-      <c r="K508" s="4" t="s">
+      <c r="K508" s="1" t="s">
         <v>5713</v>
       </c>
     </row>
@@ -36197,7 +36194,7 @@
         <f t="shared" si="7"/>
         <v>341</v>
       </c>
-      <c r="K509" s="4" t="s">
+      <c r="K509" s="1" t="s">
         <v>5714</v>
       </c>
     </row>
@@ -36233,7 +36230,7 @@
         <f t="shared" si="7"/>
         <v>315</v>
       </c>
-      <c r="K510" s="4" t="s">
+      <c r="K510" s="1" t="s">
         <v>5715</v>
       </c>
     </row>
@@ -36269,7 +36266,7 @@
         <f t="shared" si="7"/>
         <v>329</v>
       </c>
-      <c r="K511" s="4" t="s">
+      <c r="K511" s="1" t="s">
         <v>5716</v>
       </c>
     </row>
@@ -36305,7 +36302,7 @@
         <f t="shared" si="7"/>
         <v>297</v>
       </c>
-      <c r="K512" s="4" t="s">
+      <c r="K512" s="1" t="s">
         <v>5717</v>
       </c>
     </row>
@@ -36341,7 +36338,7 @@
         <f t="shared" si="7"/>
         <v>266</v>
       </c>
-      <c r="K513" s="4" t="s">
+      <c r="K513" s="1" t="s">
         <v>5718</v>
       </c>
     </row>
@@ -36377,7 +36374,7 @@
         <f t="shared" si="7"/>
         <v>254</v>
       </c>
-      <c r="K514" s="4" t="s">
+      <c r="K514" s="1" t="s">
         <v>5719</v>
       </c>
     </row>
@@ -36413,7 +36410,7 @@
         <f t="shared" ref="J515:J578" si="8">LEN(I515)</f>
         <v>248</v>
       </c>
-      <c r="K515" s="4" t="s">
+      <c r="K515" s="1" t="s">
         <v>5720</v>
       </c>
     </row>
@@ -36449,7 +36446,7 @@
         <f t="shared" si="8"/>
         <v>224</v>
       </c>
-      <c r="K516" s="4" t="s">
+      <c r="K516" s="1" t="s">
         <v>5721</v>
       </c>
     </row>
@@ -36485,7 +36482,7 @@
         <f t="shared" si="8"/>
         <v>263</v>
       </c>
-      <c r="K517" s="4" t="s">
+      <c r="K517" s="1" t="s">
         <v>5722</v>
       </c>
     </row>
@@ -36521,7 +36518,7 @@
         <f t="shared" si="8"/>
         <v>252</v>
       </c>
-      <c r="K518" s="4" t="s">
+      <c r="K518" s="1" t="s">
         <v>5723</v>
       </c>
     </row>
@@ -36557,7 +36554,7 @@
         <f t="shared" si="8"/>
         <v>264</v>
       </c>
-      <c r="K519" s="4" t="s">
+      <c r="K519" s="1" t="s">
         <v>5724</v>
       </c>
     </row>
@@ -36593,7 +36590,7 @@
         <f t="shared" si="8"/>
         <v>277</v>
       </c>
-      <c r="K520" s="4" t="s">
+      <c r="K520" s="1" t="s">
         <v>5725</v>
       </c>
     </row>
@@ -36629,7 +36626,7 @@
         <f t="shared" si="8"/>
         <v>269</v>
       </c>
-      <c r="K521" s="4" t="s">
+      <c r="K521" s="1" t="s">
         <v>5726</v>
       </c>
     </row>
@@ -36665,7 +36662,7 @@
         <f t="shared" si="8"/>
         <v>369</v>
       </c>
-      <c r="K522" s="4" t="s">
+      <c r="K522" s="1" t="s">
         <v>5727</v>
       </c>
     </row>
@@ -36701,7 +36698,7 @@
         <f t="shared" si="8"/>
         <v>383</v>
       </c>
-      <c r="K523" s="4" t="s">
+      <c r="K523" s="1" t="s">
         <v>5728</v>
       </c>
     </row>
@@ -36737,7 +36734,7 @@
         <f t="shared" si="8"/>
         <v>369</v>
       </c>
-      <c r="K524" s="4" t="s">
+      <c r="K524" s="1" t="s">
         <v>5729</v>
       </c>
     </row>
@@ -36773,7 +36770,7 @@
         <f t="shared" si="8"/>
         <v>320</v>
       </c>
-      <c r="K525" s="4" t="s">
+      <c r="K525" s="1" t="s">
         <v>5730</v>
       </c>
     </row>
@@ -36809,7 +36806,7 @@
         <f t="shared" si="8"/>
         <v>346</v>
       </c>
-      <c r="K526" s="4" t="s">
+      <c r="K526" s="1" t="s">
         <v>5731</v>
       </c>
     </row>
@@ -36845,7 +36842,7 @@
         <f t="shared" si="8"/>
         <v>323</v>
       </c>
-      <c r="K527" s="4" t="s">
+      <c r="K527" s="1" t="s">
         <v>5732</v>
       </c>
     </row>
@@ -36881,7 +36878,7 @@
         <f t="shared" si="8"/>
         <v>274</v>
       </c>
-      <c r="K528" s="4" t="s">
+      <c r="K528" s="1" t="s">
         <v>5733</v>
       </c>
     </row>
@@ -36917,7 +36914,7 @@
         <f t="shared" si="8"/>
         <v>278</v>
       </c>
-      <c r="K529" s="4" t="s">
+      <c r="K529" s="1" t="s">
         <v>5734</v>
       </c>
     </row>
@@ -36953,7 +36950,7 @@
         <f t="shared" si="8"/>
         <v>294</v>
       </c>
-      <c r="K530" s="4" t="s">
+      <c r="K530" s="1" t="s">
         <v>5735</v>
       </c>
     </row>
@@ -36989,7 +36986,7 @@
         <f t="shared" si="8"/>
         <v>312</v>
       </c>
-      <c r="K531" s="4" t="s">
+      <c r="K531" s="1" t="s">
         <v>5736</v>
       </c>
     </row>
@@ -37025,7 +37022,7 @@
         <f t="shared" si="8"/>
         <v>402</v>
       </c>
-      <c r="K532" s="4" t="s">
+      <c r="K532" s="1" t="s">
         <v>5737</v>
       </c>
     </row>
@@ -37061,7 +37058,7 @@
         <f t="shared" si="8"/>
         <v>330</v>
       </c>
-      <c r="K533" s="4" t="s">
+      <c r="K533" s="1" t="s">
         <v>5738</v>
       </c>
     </row>
@@ -37097,7 +37094,7 @@
         <f t="shared" si="8"/>
         <v>323</v>
       </c>
-      <c r="K534" s="4" t="s">
+      <c r="K534" s="1" t="s">
         <v>5739</v>
       </c>
     </row>
@@ -37133,7 +37130,7 @@
         <f t="shared" si="8"/>
         <v>328</v>
       </c>
-      <c r="K535" s="4" t="s">
+      <c r="K535" s="1" t="s">
         <v>5740</v>
       </c>
     </row>
@@ -37169,7 +37166,7 @@
         <f t="shared" si="8"/>
         <v>290</v>
       </c>
-      <c r="K536" s="4" t="s">
+      <c r="K536" s="1" t="s">
         <v>5741</v>
       </c>
     </row>
@@ -37205,7 +37202,7 @@
         <f t="shared" si="8"/>
         <v>258</v>
       </c>
-      <c r="K537" s="4" t="s">
+      <c r="K537" s="1" t="s">
         <v>5742</v>
       </c>
     </row>
@@ -37241,7 +37238,7 @@
         <f t="shared" si="8"/>
         <v>253</v>
       </c>
-      <c r="K538" s="4" t="s">
+      <c r="K538" s="1" t="s">
         <v>5743</v>
       </c>
     </row>
@@ -37277,7 +37274,7 @@
         <f t="shared" si="8"/>
         <v>288</v>
       </c>
-      <c r="K539" s="4" t="s">
+      <c r="K539" s="1" t="s">
         <v>5744</v>
       </c>
     </row>
@@ -37313,7 +37310,7 @@
         <f t="shared" si="8"/>
         <v>246</v>
       </c>
-      <c r="K540" s="4" t="s">
+      <c r="K540" s="1" t="s">
         <v>5745</v>
       </c>
     </row>
@@ -37349,7 +37346,7 @@
         <f t="shared" si="8"/>
         <v>331</v>
       </c>
-      <c r="K541" s="4" t="s">
+      <c r="K541" s="1" t="s">
         <v>5746</v>
       </c>
     </row>
@@ -37385,7 +37382,7 @@
         <f t="shared" si="8"/>
         <v>355</v>
       </c>
-      <c r="K542" s="4" t="s">
+      <c r="K542" s="1" t="s">
         <v>5747</v>
       </c>
     </row>
@@ -37421,7 +37418,7 @@
         <f t="shared" si="8"/>
         <v>320</v>
       </c>
-      <c r="K543" s="4" t="s">
+      <c r="K543" s="1" t="s">
         <v>5748</v>
       </c>
     </row>
@@ -37457,7 +37454,7 @@
         <f t="shared" si="8"/>
         <v>350</v>
       </c>
-      <c r="K544" s="4" t="s">
+      <c r="K544" s="1" t="s">
         <v>5749</v>
       </c>
     </row>
@@ -37493,7 +37490,7 @@
         <f t="shared" si="8"/>
         <v>332</v>
       </c>
-      <c r="K545" s="4" t="s">
+      <c r="K545" s="1" t="s">
         <v>5750</v>
       </c>
     </row>
@@ -37529,7 +37526,7 @@
         <f t="shared" si="8"/>
         <v>342</v>
       </c>
-      <c r="K546" s="4" t="s">
+      <c r="K546" s="1" t="s">
         <v>5751</v>
       </c>
     </row>
@@ -37565,7 +37562,7 @@
         <f t="shared" si="8"/>
         <v>278</v>
       </c>
-      <c r="K547" s="4" t="s">
+      <c r="K547" s="1" t="s">
         <v>5752</v>
       </c>
     </row>
@@ -37601,7 +37598,7 @@
         <f t="shared" si="8"/>
         <v>298</v>
       </c>
-      <c r="K548" s="4" t="s">
+      <c r="K548" s="1" t="s">
         <v>5753</v>
       </c>
     </row>
@@ -37637,7 +37634,7 @@
         <f t="shared" si="8"/>
         <v>290</v>
       </c>
-      <c r="K549" s="4" t="s">
+      <c r="K549" s="1" t="s">
         <v>5754</v>
       </c>
     </row>
@@ -37673,7 +37670,7 @@
         <f t="shared" si="8"/>
         <v>269</v>
       </c>
-      <c r="K550" s="4" t="s">
+      <c r="K550" s="1" t="s">
         <v>5755</v>
       </c>
     </row>
@@ -37709,7 +37706,7 @@
         <f t="shared" si="8"/>
         <v>307</v>
       </c>
-      <c r="K551" s="4" t="s">
+      <c r="K551" s="1" t="s">
         <v>5756</v>
       </c>
     </row>
@@ -37745,7 +37742,7 @@
         <f t="shared" si="8"/>
         <v>407</v>
       </c>
-      <c r="K552" s="4" t="s">
+      <c r="K552" s="1" t="s">
         <v>5757</v>
       </c>
     </row>
@@ -37781,7 +37778,7 @@
         <f t="shared" si="8"/>
         <v>379</v>
       </c>
-      <c r="K553" s="4" t="s">
+      <c r="K553" s="1" t="s">
         <v>5758</v>
       </c>
     </row>
@@ -37817,7 +37814,7 @@
         <f t="shared" si="8"/>
         <v>294</v>
       </c>
-      <c r="K554" s="4" t="s">
+      <c r="K554" s="1" t="s">
         <v>5759</v>
       </c>
     </row>
@@ -37853,7 +37850,7 @@
         <f t="shared" si="8"/>
         <v>310</v>
       </c>
-      <c r="K555" s="4" t="s">
+      <c r="K555" s="1" t="s">
         <v>5760</v>
       </c>
     </row>
@@ -37889,7 +37886,7 @@
         <f t="shared" si="8"/>
         <v>283</v>
       </c>
-      <c r="K556" s="4" t="s">
+      <c r="K556" s="1" t="s">
         <v>5761</v>
       </c>
     </row>
@@ -37925,7 +37922,7 @@
         <f t="shared" si="8"/>
         <v>332</v>
       </c>
-      <c r="K557" s="4" t="s">
+      <c r="K557" s="1" t="s">
         <v>5762</v>
       </c>
     </row>
@@ -37961,7 +37958,7 @@
         <f t="shared" si="8"/>
         <v>284</v>
       </c>
-      <c r="K558" s="4" t="s">
+      <c r="K558" s="1" t="s">
         <v>5763</v>
       </c>
     </row>
@@ -37997,7 +37994,7 @@
         <f t="shared" si="8"/>
         <v>315</v>
       </c>
-      <c r="K559" s="4" t="s">
+      <c r="K559" s="1" t="s">
         <v>5764</v>
       </c>
     </row>
@@ -38033,7 +38030,7 @@
         <f t="shared" si="8"/>
         <v>284</v>
       </c>
-      <c r="K560" s="4" t="s">
+      <c r="K560" s="1" t="s">
         <v>5765</v>
       </c>
     </row>
@@ -38069,7 +38066,7 @@
         <f t="shared" si="8"/>
         <v>279</v>
       </c>
-      <c r="K561" s="4" t="s">
+      <c r="K561" s="1" t="s">
         <v>5766</v>
       </c>
     </row>
@@ -38105,7 +38102,7 @@
         <f t="shared" si="8"/>
         <v>495</v>
       </c>
-      <c r="K562" s="4" t="s">
+      <c r="K562" s="1" t="s">
         <v>5767</v>
       </c>
     </row>
@@ -38141,7 +38138,7 @@
         <f t="shared" si="8"/>
         <v>441</v>
       </c>
-      <c r="K563" s="4" t="s">
+      <c r="K563" s="1" t="s">
         <v>5768</v>
       </c>
     </row>
@@ -38177,7 +38174,7 @@
         <f t="shared" si="8"/>
         <v>367</v>
       </c>
-      <c r="K564" s="4" t="s">
+      <c r="K564" s="1" t="s">
         <v>5769</v>
       </c>
     </row>
@@ -38213,7 +38210,7 @@
         <f t="shared" si="8"/>
         <v>373</v>
       </c>
-      <c r="K565" s="4" t="s">
+      <c r="K565" s="1" t="s">
         <v>5770</v>
       </c>
     </row>
@@ -38249,7 +38246,7 @@
         <f t="shared" si="8"/>
         <v>387</v>
       </c>
-      <c r="K566" s="4" t="s">
+      <c r="K566" s="1" t="s">
         <v>5771</v>
       </c>
     </row>
@@ -38285,7 +38282,7 @@
         <f t="shared" si="8"/>
         <v>368</v>
       </c>
-      <c r="K567" s="4" t="s">
+      <c r="K567" s="1" t="s">
         <v>5772</v>
       </c>
     </row>
@@ -38321,7 +38318,7 @@
         <f t="shared" si="8"/>
         <v>323</v>
       </c>
-      <c r="K568" s="4" t="s">
+      <c r="K568" s="1" t="s">
         <v>5773</v>
       </c>
     </row>
@@ -38357,7 +38354,7 @@
         <f t="shared" si="8"/>
         <v>321</v>
       </c>
-      <c r="K569" s="4" t="s">
+      <c r="K569" s="1" t="s">
         <v>5774</v>
       </c>
     </row>
@@ -38393,7 +38390,7 @@
         <f t="shared" si="8"/>
         <v>399</v>
       </c>
-      <c r="K570" s="4" t="s">
+      <c r="K570" s="1" t="s">
         <v>5775</v>
       </c>
     </row>
@@ -38429,7 +38426,7 @@
         <f t="shared" si="8"/>
         <v>338</v>
       </c>
-      <c r="K571" s="4" t="s">
+      <c r="K571" s="1" t="s">
         <v>5776</v>
       </c>
     </row>
@@ -38465,7 +38462,7 @@
         <f t="shared" si="8"/>
         <v>358</v>
       </c>
-      <c r="K572" s="4" t="s">
+      <c r="K572" s="1" t="s">
         <v>5777</v>
       </c>
     </row>
@@ -38501,7 +38498,7 @@
         <f t="shared" si="8"/>
         <v>308</v>
       </c>
-      <c r="K573" s="4" t="s">
+      <c r="K573" s="1" t="s">
         <v>5778</v>
       </c>
     </row>
@@ -38537,7 +38534,7 @@
         <f t="shared" si="8"/>
         <v>305</v>
       </c>
-      <c r="K574" s="4" t="s">
+      <c r="K574" s="1" t="s">
         <v>5779</v>
       </c>
     </row>
@@ -38573,7 +38570,7 @@
         <f t="shared" si="8"/>
         <v>316</v>
       </c>
-      <c r="K575" s="4" t="s">
+      <c r="K575" s="1" t="s">
         <v>5780</v>
       </c>
     </row>
@@ -38609,7 +38606,7 @@
         <f t="shared" si="8"/>
         <v>265</v>
       </c>
-      <c r="K576" s="4" t="s">
+      <c r="K576" s="1" t="s">
         <v>5781</v>
       </c>
     </row>
@@ -38645,7 +38642,7 @@
         <f t="shared" si="8"/>
         <v>248</v>
       </c>
-      <c r="K577" s="4" t="s">
+      <c r="K577" s="1" t="s">
         <v>5782</v>
       </c>
     </row>
@@ -38681,7 +38678,7 @@
         <f t="shared" si="8"/>
         <v>278</v>
       </c>
-      <c r="K578" s="4" t="s">
+      <c r="K578" s="1" t="s">
         <v>5783</v>
       </c>
     </row>
@@ -38717,7 +38714,7 @@
         <f t="shared" ref="J579:J609" si="9">LEN(I579)</f>
         <v>273</v>
       </c>
-      <c r="K579" s="4" t="s">
+      <c r="K579" s="1" t="s">
         <v>5784</v>
       </c>
     </row>
@@ -38753,7 +38750,7 @@
         <f t="shared" si="9"/>
         <v>259</v>
       </c>
-      <c r="K580" s="4" t="s">
+      <c r="K580" s="1" t="s">
         <v>5785</v>
       </c>
     </row>
@@ -38789,7 +38786,7 @@
         <f t="shared" si="9"/>
         <v>301</v>
       </c>
-      <c r="K581" s="4" t="s">
+      <c r="K581" s="1" t="s">
         <v>5786</v>
       </c>
     </row>
@@ -38825,7 +38822,7 @@
         <f t="shared" si="9"/>
         <v>378</v>
       </c>
-      <c r="K582" s="4" t="s">
+      <c r="K582" s="1" t="s">
         <v>5787</v>
       </c>
     </row>
@@ -38861,7 +38858,7 @@
         <f t="shared" si="9"/>
         <v>419</v>
       </c>
-      <c r="K583" s="4" t="s">
+      <c r="K583" s="1" t="s">
         <v>5788</v>
       </c>
     </row>
@@ -38897,7 +38894,7 @@
         <f t="shared" si="9"/>
         <v>388</v>
       </c>
-      <c r="K584" s="4" t="s">
+      <c r="K584" s="1" t="s">
         <v>5789</v>
       </c>
     </row>
@@ -38933,7 +38930,7 @@
         <f t="shared" si="9"/>
         <v>315</v>
       </c>
-      <c r="K585" s="4" t="s">
+      <c r="K585" s="1" t="s">
         <v>5790</v>
       </c>
     </row>
@@ -38969,7 +38966,7 @@
         <f t="shared" si="9"/>
         <v>322</v>
       </c>
-      <c r="K586" s="4" t="s">
+      <c r="K586" s="1" t="s">
         <v>5791</v>
       </c>
     </row>
@@ -39005,7 +39002,7 @@
         <f t="shared" si="9"/>
         <v>333</v>
       </c>
-      <c r="K587" s="4" t="s">
+      <c r="K587" s="1" t="s">
         <v>5792</v>
       </c>
     </row>
@@ -39041,7 +39038,7 @@
         <f t="shared" si="9"/>
         <v>336</v>
       </c>
-      <c r="K588" s="4" t="s">
+      <c r="K588" s="1" t="s">
         <v>5793</v>
       </c>
     </row>
@@ -39077,7 +39074,7 @@
         <f t="shared" si="9"/>
         <v>340</v>
       </c>
-      <c r="K589" s="4" t="s">
+      <c r="K589" s="1" t="s">
         <v>5794</v>
       </c>
     </row>
@@ -39113,7 +39110,7 @@
         <f t="shared" si="9"/>
         <v>311</v>
       </c>
-      <c r="K590" s="4" t="s">
+      <c r="K590" s="1" t="s">
         <v>5795</v>
       </c>
     </row>
@@ -39149,7 +39146,7 @@
         <f t="shared" si="9"/>
         <v>318</v>
       </c>
-      <c r="K591" s="4" t="s">
+      <c r="K591" s="1" t="s">
         <v>5796</v>
       </c>
     </row>
@@ -39185,7 +39182,7 @@
         <f t="shared" si="9"/>
         <v>514</v>
       </c>
-      <c r="K592" s="4" t="s">
+      <c r="K592" s="1" t="s">
         <v>5797</v>
       </c>
     </row>
@@ -39221,7 +39218,7 @@
         <f t="shared" si="9"/>
         <v>465</v>
       </c>
-      <c r="K593" s="4" t="s">
+      <c r="K593" s="1" t="s">
         <v>5798</v>
       </c>
     </row>
@@ -39257,7 +39254,7 @@
         <f t="shared" si="9"/>
         <v>518</v>
       </c>
-      <c r="K594" s="4" t="s">
+      <c r="K594" s="1" t="s">
         <v>5799</v>
       </c>
     </row>
@@ -39293,7 +39290,7 @@
         <f t="shared" si="9"/>
         <v>393</v>
       </c>
-      <c r="K595" s="4" t="s">
+      <c r="K595" s="1" t="s">
         <v>5800</v>
       </c>
     </row>
@@ -39329,7 +39326,7 @@
         <f t="shared" si="9"/>
         <v>343</v>
       </c>
-      <c r="K596" s="4" t="s">
+      <c r="K596" s="1" t="s">
         <v>5801</v>
       </c>
     </row>
@@ -39365,7 +39362,7 @@
         <f t="shared" si="9"/>
         <v>367</v>
       </c>
-      <c r="K597" s="4" t="s">
+      <c r="K597" s="1" t="s">
         <v>5802</v>
       </c>
     </row>
@@ -39401,7 +39398,7 @@
         <f t="shared" si="9"/>
         <v>404</v>
       </c>
-      <c r="K598" s="4" t="s">
+      <c r="K598" s="1" t="s">
         <v>5803</v>
       </c>
     </row>
@@ -39437,7 +39434,7 @@
         <f t="shared" si="9"/>
         <v>361</v>
       </c>
-      <c r="K599" s="4" t="s">
+      <c r="K599" s="1" t="s">
         <v>5804</v>
       </c>
     </row>
@@ -39473,7 +39470,7 @@
         <f t="shared" si="9"/>
         <v>356</v>
       </c>
-      <c r="K600" s="4" t="s">
+      <c r="K600" s="1" t="s">
         <v>5805</v>
       </c>
     </row>
@@ -39509,7 +39506,7 @@
         <f t="shared" si="9"/>
         <v>340</v>
       </c>
-      <c r="K601" s="4" t="s">
+      <c r="K601" s="1" t="s">
         <v>5806</v>
       </c>
     </row>
@@ -39518,7 +39515,7 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K602" s="4" t="s">
+      <c r="K602" s="1" t="s">
         <v>5807</v>
       </c>
     </row>
@@ -39527,7 +39524,7 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K603" s="4" t="s">
+      <c r="K603" s="1" t="s">
         <v>5808</v>
       </c>
     </row>
@@ -39536,7 +39533,7 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K604" s="4" t="s">
+      <c r="K604" s="1" t="s">
         <v>5809</v>
       </c>
     </row>
@@ -39545,7 +39542,7 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K605" s="4" t="s">
+      <c r="K605" s="1" t="s">
         <v>5810</v>
       </c>
     </row>
@@ -39554,7 +39551,7 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K606" s="4" t="s">
+      <c r="K606" s="1" t="s">
         <v>5811</v>
       </c>
     </row>
@@ -39563,7 +39560,7 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K607" s="4" t="s">
+      <c r="K607" s="1" t="s">
         <v>5812</v>
       </c>
     </row>
@@ -39572,7 +39569,7 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K608" s="4" t="s">
+      <c r="K608" s="1" t="s">
         <v>5813</v>
       </c>
     </row>
@@ -39581,7 +39578,7 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K609" s="4" t="s">
+      <c r="K609" s="1" t="s">
         <v>5814</v>
       </c>
     </row>

--- a/app/datasets/traffic_accident_reports_collection.xlsx
+++ b/app/datasets/traffic_accident_reports_collection.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MATIAS\Documents\Proyectos\DS-Projects\VSprojects\reportingAgent\app\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD94865F-368F-4733-B7FA-2DECC619C4E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F7F33FB-D360-480D-A20E-5BC60FD02E83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-6096" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TRAFFIC_ACCIDENT" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="1016">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1021" uniqueCount="1008">
   <si>
     <t>report_name</t>
   </si>
@@ -3057,30 +3057,6 @@
   </si>
   <si>
     <t>Automatically generated in batches of size 10 - gpt-4.101</t>
-  </si>
-  <si>
-    <t>Automatically generated in batches of size 10 - gpt-4.601</t>
-  </si>
-  <si>
-    <t>Automatically generated in batches of size 10 - gpt-4.602</t>
-  </si>
-  <si>
-    <t>Automatically generated in batches of size 10 - gpt-4.603</t>
-  </si>
-  <si>
-    <t>Automatically generated in batches of size 10 - gpt-4.604</t>
-  </si>
-  <si>
-    <t>Automatically generated in batches of size 10 - gpt-4.605</t>
-  </si>
-  <si>
-    <t>Automatically generated in batches of size 10 - gpt-4.606</t>
-  </si>
-  <si>
-    <t>Automatically generated in batches of size 10 - gpt-4.607</t>
-  </si>
-  <si>
-    <t>Automatically generated in batches of size 10 - gpt-4.608</t>
   </si>
 </sst>
 </file>
@@ -3153,7 +3129,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3163,6 +3139,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3466,10 +3445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:K609"/>
+  <dimension ref="A1:K102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A102" workbookViewId="0">
-      <selection activeCell="A102" sqref="A102"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3517,7 +3496,7 @@
       <c r="A2" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="4" t="s">
         <v>738</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -7147,1575 +7126,6 @@
       </c>
       <c r="K102" s="1" t="s">
         <v>1007</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="K103" s="1"/>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="K104" s="1"/>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="K105" s="1"/>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="K106" s="1"/>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="K107" s="1"/>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="K108" s="1"/>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="K109" s="1"/>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="K110" s="1"/>
-    </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="K111" s="1"/>
-    </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="K112" s="1"/>
-    </row>
-    <row r="113" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K113" s="1"/>
-    </row>
-    <row r="114" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K114" s="1"/>
-    </row>
-    <row r="115" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K115" s="1"/>
-    </row>
-    <row r="116" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K116" s="1"/>
-    </row>
-    <row r="117" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K117" s="1"/>
-    </row>
-    <row r="118" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K118" s="1"/>
-    </row>
-    <row r="119" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K119" s="1"/>
-    </row>
-    <row r="120" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K120" s="1"/>
-    </row>
-    <row r="121" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K121" s="1"/>
-    </row>
-    <row r="122" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K122" s="1"/>
-    </row>
-    <row r="123" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K123" s="1"/>
-    </row>
-    <row r="124" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K124" s="1"/>
-    </row>
-    <row r="125" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K125" s="1"/>
-    </row>
-    <row r="126" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K126" s="1"/>
-    </row>
-    <row r="127" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K127" s="1"/>
-    </row>
-    <row r="128" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K128" s="1"/>
-    </row>
-    <row r="129" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K129" s="1"/>
-    </row>
-    <row r="130" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K130" s="1"/>
-    </row>
-    <row r="131" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K131" s="1"/>
-    </row>
-    <row r="132" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K132" s="1"/>
-    </row>
-    <row r="133" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K133" s="1"/>
-    </row>
-    <row r="134" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K134" s="1"/>
-    </row>
-    <row r="135" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K135" s="1"/>
-    </row>
-    <row r="136" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K136" s="1"/>
-    </row>
-    <row r="137" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K137" s="1"/>
-    </row>
-    <row r="138" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K138" s="1"/>
-    </row>
-    <row r="139" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K139" s="1"/>
-    </row>
-    <row r="140" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K140" s="1"/>
-    </row>
-    <row r="141" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K141" s="1"/>
-    </row>
-    <row r="142" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K142" s="1"/>
-    </row>
-    <row r="143" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K143" s="1"/>
-    </row>
-    <row r="144" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K144" s="1"/>
-    </row>
-    <row r="145" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K145" s="1"/>
-    </row>
-    <row r="146" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K146" s="1"/>
-    </row>
-    <row r="147" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K147" s="1"/>
-    </row>
-    <row r="148" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K148" s="1"/>
-    </row>
-    <row r="149" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K149" s="1"/>
-    </row>
-    <row r="150" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K150" s="1"/>
-    </row>
-    <row r="151" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K151" s="1"/>
-    </row>
-    <row r="152" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K152" s="1"/>
-    </row>
-    <row r="153" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K153" s="1"/>
-    </row>
-    <row r="154" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K154" s="1"/>
-    </row>
-    <row r="155" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K155" s="1"/>
-    </row>
-    <row r="156" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K156" s="1"/>
-    </row>
-    <row r="157" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K157" s="1"/>
-    </row>
-    <row r="158" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K158" s="1"/>
-    </row>
-    <row r="159" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K159" s="1"/>
-    </row>
-    <row r="160" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K160" s="1"/>
-    </row>
-    <row r="161" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K161" s="1"/>
-    </row>
-    <row r="162" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K162" s="1"/>
-    </row>
-    <row r="163" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K163" s="1"/>
-    </row>
-    <row r="164" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K164" s="1"/>
-    </row>
-    <row r="165" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K165" s="1"/>
-    </row>
-    <row r="166" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K166" s="1"/>
-    </row>
-    <row r="167" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K167" s="1"/>
-    </row>
-    <row r="168" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K168" s="1"/>
-    </row>
-    <row r="169" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K169" s="1"/>
-    </row>
-    <row r="170" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K170" s="1"/>
-    </row>
-    <row r="171" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K171" s="1"/>
-    </row>
-    <row r="172" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K172" s="1"/>
-    </row>
-    <row r="173" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K173" s="1"/>
-    </row>
-    <row r="174" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K174" s="1"/>
-    </row>
-    <row r="175" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K175" s="1"/>
-    </row>
-    <row r="176" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K176" s="1"/>
-    </row>
-    <row r="177" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K177" s="1"/>
-    </row>
-    <row r="178" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K178" s="1"/>
-    </row>
-    <row r="179" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K179" s="1"/>
-    </row>
-    <row r="180" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K180" s="1"/>
-    </row>
-    <row r="181" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K181" s="1"/>
-    </row>
-    <row r="182" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K182" s="1"/>
-    </row>
-    <row r="183" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K183" s="1"/>
-    </row>
-    <row r="184" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K184" s="1"/>
-    </row>
-    <row r="185" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K185" s="1"/>
-    </row>
-    <row r="186" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K186" s="1"/>
-    </row>
-    <row r="187" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K187" s="1"/>
-    </row>
-    <row r="188" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K188" s="1"/>
-    </row>
-    <row r="189" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K189" s="1"/>
-    </row>
-    <row r="190" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K190" s="1"/>
-    </row>
-    <row r="191" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K191" s="1"/>
-    </row>
-    <row r="192" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K192" s="1"/>
-    </row>
-    <row r="193" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K193" s="1"/>
-    </row>
-    <row r="194" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K194" s="1"/>
-    </row>
-    <row r="195" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K195" s="1"/>
-    </row>
-    <row r="196" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K196" s="1"/>
-    </row>
-    <row r="197" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K197" s="1"/>
-    </row>
-    <row r="198" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K198" s="1"/>
-    </row>
-    <row r="199" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K199" s="1"/>
-    </row>
-    <row r="200" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K200" s="1"/>
-    </row>
-    <row r="201" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K201" s="1"/>
-    </row>
-    <row r="202" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K202" s="1"/>
-    </row>
-    <row r="203" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K203" s="1"/>
-    </row>
-    <row r="204" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K204" s="1"/>
-    </row>
-    <row r="205" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K205" s="1"/>
-    </row>
-    <row r="206" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K206" s="1"/>
-    </row>
-    <row r="207" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K207" s="1"/>
-    </row>
-    <row r="208" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K208" s="1"/>
-    </row>
-    <row r="209" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K209" s="1"/>
-    </row>
-    <row r="210" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K210" s="1"/>
-    </row>
-    <row r="211" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K211" s="1"/>
-    </row>
-    <row r="212" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K212" s="1"/>
-    </row>
-    <row r="213" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K213" s="1"/>
-    </row>
-    <row r="214" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K214" s="1"/>
-    </row>
-    <row r="215" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K215" s="1"/>
-    </row>
-    <row r="216" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K216" s="1"/>
-    </row>
-    <row r="217" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K217" s="1"/>
-    </row>
-    <row r="218" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K218" s="1"/>
-    </row>
-    <row r="219" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K219" s="1"/>
-    </row>
-    <row r="220" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K220" s="1"/>
-    </row>
-    <row r="221" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K221" s="1"/>
-    </row>
-    <row r="222" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K222" s="1"/>
-    </row>
-    <row r="223" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K223" s="1"/>
-    </row>
-    <row r="224" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K224" s="1"/>
-    </row>
-    <row r="225" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K225" s="1"/>
-    </row>
-    <row r="226" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K226" s="1"/>
-    </row>
-    <row r="227" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K227" s="1"/>
-    </row>
-    <row r="228" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K228" s="1"/>
-    </row>
-    <row r="229" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K229" s="1"/>
-    </row>
-    <row r="230" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K230" s="1"/>
-    </row>
-    <row r="231" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K231" s="1"/>
-    </row>
-    <row r="232" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K232" s="1"/>
-    </row>
-    <row r="233" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K233" s="1"/>
-    </row>
-    <row r="234" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K234" s="1"/>
-    </row>
-    <row r="235" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K235" s="1"/>
-    </row>
-    <row r="236" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K236" s="1"/>
-    </row>
-    <row r="237" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K237" s="1"/>
-    </row>
-    <row r="238" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K238" s="1"/>
-    </row>
-    <row r="239" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K239" s="1"/>
-    </row>
-    <row r="240" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K240" s="1"/>
-    </row>
-    <row r="241" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K241" s="1"/>
-    </row>
-    <row r="242" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K242" s="1"/>
-    </row>
-    <row r="243" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K243" s="1"/>
-    </row>
-    <row r="244" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K244" s="1"/>
-    </row>
-    <row r="245" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K245" s="1"/>
-    </row>
-    <row r="246" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K246" s="1"/>
-    </row>
-    <row r="247" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K247" s="1"/>
-    </row>
-    <row r="248" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K248" s="1"/>
-    </row>
-    <row r="249" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K249" s="1"/>
-    </row>
-    <row r="250" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K250" s="1"/>
-    </row>
-    <row r="251" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K251" s="1"/>
-    </row>
-    <row r="252" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K252" s="1"/>
-    </row>
-    <row r="253" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K253" s="1"/>
-    </row>
-    <row r="254" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K254" s="1"/>
-    </row>
-    <row r="255" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K255" s="1"/>
-    </row>
-    <row r="256" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K256" s="1"/>
-    </row>
-    <row r="257" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K257" s="1"/>
-    </row>
-    <row r="258" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K258" s="1"/>
-    </row>
-    <row r="259" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K259" s="1"/>
-    </row>
-    <row r="260" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K260" s="1"/>
-    </row>
-    <row r="261" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K261" s="1"/>
-    </row>
-    <row r="262" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K262" s="1"/>
-    </row>
-    <row r="263" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K263" s="1"/>
-    </row>
-    <row r="264" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K264" s="1"/>
-    </row>
-    <row r="265" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K265" s="1"/>
-    </row>
-    <row r="266" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K266" s="1"/>
-    </row>
-    <row r="267" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K267" s="1"/>
-    </row>
-    <row r="268" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K268" s="1"/>
-    </row>
-    <row r="269" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K269" s="1"/>
-    </row>
-    <row r="270" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K270" s="1"/>
-    </row>
-    <row r="271" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K271" s="1"/>
-    </row>
-    <row r="272" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K272" s="1"/>
-    </row>
-    <row r="273" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K273" s="1"/>
-    </row>
-    <row r="274" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K274" s="1"/>
-    </row>
-    <row r="275" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K275" s="1"/>
-    </row>
-    <row r="276" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K276" s="1"/>
-    </row>
-    <row r="277" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K277" s="1"/>
-    </row>
-    <row r="278" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K278" s="1"/>
-    </row>
-    <row r="279" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K279" s="1"/>
-    </row>
-    <row r="280" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K280" s="1"/>
-    </row>
-    <row r="281" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K281" s="1"/>
-    </row>
-    <row r="282" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K282" s="1"/>
-    </row>
-    <row r="283" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K283" s="1"/>
-    </row>
-    <row r="284" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K284" s="1"/>
-    </row>
-    <row r="285" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K285" s="1"/>
-    </row>
-    <row r="286" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K286" s="1"/>
-    </row>
-    <row r="287" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K287" s="1"/>
-    </row>
-    <row r="288" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K288" s="1"/>
-    </row>
-    <row r="289" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K289" s="1"/>
-    </row>
-    <row r="290" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K290" s="1"/>
-    </row>
-    <row r="291" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K291" s="1"/>
-    </row>
-    <row r="292" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K292" s="1"/>
-    </row>
-    <row r="293" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K293" s="1"/>
-    </row>
-    <row r="294" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K294" s="1"/>
-    </row>
-    <row r="295" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K295" s="1"/>
-    </row>
-    <row r="296" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K296" s="1"/>
-    </row>
-    <row r="297" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K297" s="1"/>
-    </row>
-    <row r="298" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K298" s="1"/>
-    </row>
-    <row r="299" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K299" s="1"/>
-    </row>
-    <row r="300" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K300" s="1"/>
-    </row>
-    <row r="301" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K301" s="1"/>
-    </row>
-    <row r="302" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K302" s="1"/>
-    </row>
-    <row r="303" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K303" s="1"/>
-    </row>
-    <row r="304" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K304" s="1"/>
-    </row>
-    <row r="305" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K305" s="1"/>
-    </row>
-    <row r="306" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K306" s="1"/>
-    </row>
-    <row r="307" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K307" s="1"/>
-    </row>
-    <row r="308" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K308" s="1"/>
-    </row>
-    <row r="309" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K309" s="1"/>
-    </row>
-    <row r="310" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K310" s="1"/>
-    </row>
-    <row r="311" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K311" s="1"/>
-    </row>
-    <row r="312" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K312" s="1"/>
-    </row>
-    <row r="313" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K313" s="1"/>
-    </row>
-    <row r="314" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K314" s="1"/>
-    </row>
-    <row r="315" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K315" s="1"/>
-    </row>
-    <row r="316" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K316" s="1"/>
-    </row>
-    <row r="317" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K317" s="1"/>
-    </row>
-    <row r="318" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K318" s="1"/>
-    </row>
-    <row r="319" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K319" s="1"/>
-    </row>
-    <row r="320" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K320" s="1"/>
-    </row>
-    <row r="321" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K321" s="1"/>
-    </row>
-    <row r="322" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K322" s="1"/>
-    </row>
-    <row r="323" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K323" s="1"/>
-    </row>
-    <row r="324" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K324" s="1"/>
-    </row>
-    <row r="325" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K325" s="1"/>
-    </row>
-    <row r="326" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K326" s="1"/>
-    </row>
-    <row r="327" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K327" s="1"/>
-    </row>
-    <row r="328" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K328" s="1"/>
-    </row>
-    <row r="329" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K329" s="1"/>
-    </row>
-    <row r="330" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K330" s="1"/>
-    </row>
-    <row r="331" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K331" s="1"/>
-    </row>
-    <row r="332" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K332" s="1"/>
-    </row>
-    <row r="333" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K333" s="1"/>
-    </row>
-    <row r="334" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K334" s="1"/>
-    </row>
-    <row r="335" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K335" s="1"/>
-    </row>
-    <row r="336" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K336" s="1"/>
-    </row>
-    <row r="337" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K337" s="1"/>
-    </row>
-    <row r="338" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K338" s="1"/>
-    </row>
-    <row r="339" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K339" s="1"/>
-    </row>
-    <row r="340" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K340" s="1"/>
-    </row>
-    <row r="341" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K341" s="1"/>
-    </row>
-    <row r="342" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K342" s="1"/>
-    </row>
-    <row r="343" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K343" s="1"/>
-    </row>
-    <row r="344" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K344" s="1"/>
-    </row>
-    <row r="345" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K345" s="1"/>
-    </row>
-    <row r="346" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K346" s="1"/>
-    </row>
-    <row r="347" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K347" s="1"/>
-    </row>
-    <row r="348" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K348" s="1"/>
-    </row>
-    <row r="349" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K349" s="1"/>
-    </row>
-    <row r="350" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K350" s="1"/>
-    </row>
-    <row r="351" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K351" s="1"/>
-    </row>
-    <row r="352" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K352" s="1"/>
-    </row>
-    <row r="353" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K353" s="1"/>
-    </row>
-    <row r="354" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K354" s="1"/>
-    </row>
-    <row r="355" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K355" s="1"/>
-    </row>
-    <row r="356" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K356" s="1"/>
-    </row>
-    <row r="357" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K357" s="1"/>
-    </row>
-    <row r="358" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K358" s="1"/>
-    </row>
-    <row r="359" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K359" s="1"/>
-    </row>
-    <row r="360" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K360" s="1"/>
-    </row>
-    <row r="361" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K361" s="1"/>
-    </row>
-    <row r="362" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K362" s="1"/>
-    </row>
-    <row r="363" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K363" s="1"/>
-    </row>
-    <row r="364" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K364" s="1"/>
-    </row>
-    <row r="365" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K365" s="1"/>
-    </row>
-    <row r="366" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K366" s="1"/>
-    </row>
-    <row r="367" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K367" s="1"/>
-    </row>
-    <row r="368" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K368" s="1"/>
-    </row>
-    <row r="369" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K369" s="1"/>
-    </row>
-    <row r="370" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K370" s="1"/>
-    </row>
-    <row r="371" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K371" s="1"/>
-    </row>
-    <row r="372" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K372" s="1"/>
-    </row>
-    <row r="373" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K373" s="1"/>
-    </row>
-    <row r="374" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K374" s="1"/>
-    </row>
-    <row r="375" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K375" s="1"/>
-    </row>
-    <row r="376" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K376" s="1"/>
-    </row>
-    <row r="377" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K377" s="1"/>
-    </row>
-    <row r="378" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K378" s="1"/>
-    </row>
-    <row r="379" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K379" s="1"/>
-    </row>
-    <row r="380" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K380" s="1"/>
-    </row>
-    <row r="381" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K381" s="1"/>
-    </row>
-    <row r="382" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K382" s="1"/>
-    </row>
-    <row r="383" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K383" s="1"/>
-    </row>
-    <row r="384" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K384" s="1"/>
-    </row>
-    <row r="385" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K385" s="1"/>
-    </row>
-    <row r="386" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K386" s="1"/>
-    </row>
-    <row r="387" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K387" s="1"/>
-    </row>
-    <row r="388" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K388" s="1"/>
-    </row>
-    <row r="389" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K389" s="1"/>
-    </row>
-    <row r="390" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K390" s="1"/>
-    </row>
-    <row r="391" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K391" s="1"/>
-    </row>
-    <row r="392" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K392" s="1"/>
-    </row>
-    <row r="393" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K393" s="1"/>
-    </row>
-    <row r="394" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K394" s="1"/>
-    </row>
-    <row r="395" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K395" s="1"/>
-    </row>
-    <row r="396" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K396" s="1"/>
-    </row>
-    <row r="397" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K397" s="1"/>
-    </row>
-    <row r="398" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K398" s="1"/>
-    </row>
-    <row r="399" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K399" s="1"/>
-    </row>
-    <row r="400" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K400" s="1"/>
-    </row>
-    <row r="401" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K401" s="1"/>
-    </row>
-    <row r="402" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K402" s="1"/>
-    </row>
-    <row r="403" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K403" s="1"/>
-    </row>
-    <row r="404" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K404" s="1"/>
-    </row>
-    <row r="405" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K405" s="1"/>
-    </row>
-    <row r="406" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K406" s="1"/>
-    </row>
-    <row r="407" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K407" s="1"/>
-    </row>
-    <row r="408" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K408" s="1"/>
-    </row>
-    <row r="409" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K409" s="1"/>
-    </row>
-    <row r="410" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K410" s="1"/>
-    </row>
-    <row r="411" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K411" s="1"/>
-    </row>
-    <row r="412" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K412" s="1"/>
-    </row>
-    <row r="413" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K413" s="1"/>
-    </row>
-    <row r="414" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K414" s="1"/>
-    </row>
-    <row r="415" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K415" s="1"/>
-    </row>
-    <row r="416" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K416" s="1"/>
-    </row>
-    <row r="417" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K417" s="1"/>
-    </row>
-    <row r="418" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K418" s="1"/>
-    </row>
-    <row r="419" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K419" s="1"/>
-    </row>
-    <row r="420" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K420" s="1"/>
-    </row>
-    <row r="421" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K421" s="1"/>
-    </row>
-    <row r="422" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K422" s="1"/>
-    </row>
-    <row r="423" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K423" s="1"/>
-    </row>
-    <row r="424" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K424" s="1"/>
-    </row>
-    <row r="425" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K425" s="1"/>
-    </row>
-    <row r="426" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K426" s="1"/>
-    </row>
-    <row r="427" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K427" s="1"/>
-    </row>
-    <row r="428" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K428" s="1"/>
-    </row>
-    <row r="429" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K429" s="1"/>
-    </row>
-    <row r="430" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K430" s="1"/>
-    </row>
-    <row r="431" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K431" s="1"/>
-    </row>
-    <row r="432" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K432" s="1"/>
-    </row>
-    <row r="433" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K433" s="1"/>
-    </row>
-    <row r="434" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K434" s="1"/>
-    </row>
-    <row r="435" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K435" s="1"/>
-    </row>
-    <row r="436" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K436" s="1"/>
-    </row>
-    <row r="437" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K437" s="1"/>
-    </row>
-    <row r="438" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K438" s="1"/>
-    </row>
-    <row r="439" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K439" s="1"/>
-    </row>
-    <row r="440" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K440" s="1"/>
-    </row>
-    <row r="441" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K441" s="1"/>
-    </row>
-    <row r="442" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K442" s="1"/>
-    </row>
-    <row r="443" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K443" s="1"/>
-    </row>
-    <row r="444" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K444" s="1"/>
-    </row>
-    <row r="445" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K445" s="1"/>
-    </row>
-    <row r="446" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K446" s="1"/>
-    </row>
-    <row r="447" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K447" s="1"/>
-    </row>
-    <row r="448" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K448" s="1"/>
-    </row>
-    <row r="449" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K449" s="1"/>
-    </row>
-    <row r="450" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K450" s="1"/>
-    </row>
-    <row r="451" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K451" s="1"/>
-    </row>
-    <row r="452" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K452" s="1"/>
-    </row>
-    <row r="453" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K453" s="1"/>
-    </row>
-    <row r="454" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K454" s="1"/>
-    </row>
-    <row r="455" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K455" s="1"/>
-    </row>
-    <row r="456" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K456" s="1"/>
-    </row>
-    <row r="457" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K457" s="1"/>
-    </row>
-    <row r="458" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K458" s="1"/>
-    </row>
-    <row r="459" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K459" s="1"/>
-    </row>
-    <row r="460" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K460" s="1"/>
-    </row>
-    <row r="461" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K461" s="1"/>
-    </row>
-    <row r="462" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K462" s="1"/>
-    </row>
-    <row r="463" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K463" s="1"/>
-    </row>
-    <row r="464" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K464" s="1"/>
-    </row>
-    <row r="465" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K465" s="1"/>
-    </row>
-    <row r="466" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K466" s="1"/>
-    </row>
-    <row r="467" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K467" s="1"/>
-    </row>
-    <row r="468" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K468" s="1"/>
-    </row>
-    <row r="469" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K469" s="1"/>
-    </row>
-    <row r="470" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K470" s="1"/>
-    </row>
-    <row r="471" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K471" s="1"/>
-    </row>
-    <row r="472" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K472" s="1"/>
-    </row>
-    <row r="473" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K473" s="1"/>
-    </row>
-    <row r="474" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K474" s="1"/>
-    </row>
-    <row r="475" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K475" s="1"/>
-    </row>
-    <row r="476" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K476" s="1"/>
-    </row>
-    <row r="477" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K477" s="1"/>
-    </row>
-    <row r="478" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K478" s="1"/>
-    </row>
-    <row r="479" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K479" s="1"/>
-    </row>
-    <row r="480" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K480" s="1"/>
-    </row>
-    <row r="481" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K481" s="1"/>
-    </row>
-    <row r="482" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K482" s="1"/>
-    </row>
-    <row r="483" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K483" s="1"/>
-    </row>
-    <row r="484" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K484" s="1"/>
-    </row>
-    <row r="485" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K485" s="1"/>
-    </row>
-    <row r="486" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K486" s="1"/>
-    </row>
-    <row r="487" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K487" s="1"/>
-    </row>
-    <row r="488" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K488" s="1"/>
-    </row>
-    <row r="489" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K489" s="1"/>
-    </row>
-    <row r="490" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K490" s="1"/>
-    </row>
-    <row r="491" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K491" s="1"/>
-    </row>
-    <row r="492" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K492" s="1"/>
-    </row>
-    <row r="493" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K493" s="1"/>
-    </row>
-    <row r="494" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K494" s="1"/>
-    </row>
-    <row r="495" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K495" s="1"/>
-    </row>
-    <row r="496" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K496" s="1"/>
-    </row>
-    <row r="497" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K497" s="1"/>
-    </row>
-    <row r="498" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K498" s="1"/>
-    </row>
-    <row r="499" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K499" s="1"/>
-    </row>
-    <row r="500" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K500" s="1"/>
-    </row>
-    <row r="501" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K501" s="1"/>
-    </row>
-    <row r="502" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K502" s="1"/>
-    </row>
-    <row r="503" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K503" s="1"/>
-    </row>
-    <row r="504" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K504" s="1"/>
-    </row>
-    <row r="505" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K505" s="1"/>
-    </row>
-    <row r="506" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K506" s="1"/>
-    </row>
-    <row r="507" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K507" s="1"/>
-    </row>
-    <row r="508" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K508" s="1"/>
-    </row>
-    <row r="509" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K509" s="1"/>
-    </row>
-    <row r="510" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K510" s="1"/>
-    </row>
-    <row r="511" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K511" s="1"/>
-    </row>
-    <row r="512" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K512" s="1"/>
-    </row>
-    <row r="513" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K513" s="1"/>
-    </row>
-    <row r="514" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K514" s="1"/>
-    </row>
-    <row r="515" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K515" s="1"/>
-    </row>
-    <row r="516" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K516" s="1"/>
-    </row>
-    <row r="517" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K517" s="1"/>
-    </row>
-    <row r="518" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K518" s="1"/>
-    </row>
-    <row r="519" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K519" s="1"/>
-    </row>
-    <row r="520" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K520" s="1"/>
-    </row>
-    <row r="521" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K521" s="1"/>
-    </row>
-    <row r="522" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K522" s="1"/>
-    </row>
-    <row r="523" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K523" s="1"/>
-    </row>
-    <row r="524" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K524" s="1"/>
-    </row>
-    <row r="525" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K525" s="1"/>
-    </row>
-    <row r="526" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K526" s="1"/>
-    </row>
-    <row r="527" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K527" s="1"/>
-    </row>
-    <row r="528" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K528" s="1"/>
-    </row>
-    <row r="529" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K529" s="1"/>
-    </row>
-    <row r="530" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K530" s="1"/>
-    </row>
-    <row r="531" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K531" s="1"/>
-    </row>
-    <row r="532" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K532" s="1"/>
-    </row>
-    <row r="533" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K533" s="1"/>
-    </row>
-    <row r="534" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K534" s="1"/>
-    </row>
-    <row r="535" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K535" s="1"/>
-    </row>
-    <row r="536" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K536" s="1"/>
-    </row>
-    <row r="537" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K537" s="1"/>
-    </row>
-    <row r="538" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K538" s="1"/>
-    </row>
-    <row r="539" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K539" s="1"/>
-    </row>
-    <row r="540" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K540" s="1"/>
-    </row>
-    <row r="541" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K541" s="1"/>
-    </row>
-    <row r="542" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K542" s="1"/>
-    </row>
-    <row r="543" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K543" s="1"/>
-    </row>
-    <row r="544" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K544" s="1"/>
-    </row>
-    <row r="545" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K545" s="1"/>
-    </row>
-    <row r="546" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K546" s="1"/>
-    </row>
-    <row r="547" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K547" s="1"/>
-    </row>
-    <row r="548" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K548" s="1"/>
-    </row>
-    <row r="549" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K549" s="1"/>
-    </row>
-    <row r="550" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K550" s="1"/>
-    </row>
-    <row r="551" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K551" s="1"/>
-    </row>
-    <row r="552" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K552" s="1"/>
-    </row>
-    <row r="553" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K553" s="1"/>
-    </row>
-    <row r="554" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K554" s="1"/>
-    </row>
-    <row r="555" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K555" s="1"/>
-    </row>
-    <row r="556" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K556" s="1"/>
-    </row>
-    <row r="557" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K557" s="1"/>
-    </row>
-    <row r="558" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K558" s="1"/>
-    </row>
-    <row r="559" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K559" s="1"/>
-    </row>
-    <row r="560" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K560" s="1"/>
-    </row>
-    <row r="561" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K561" s="1"/>
-    </row>
-    <row r="562" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K562" s="1"/>
-    </row>
-    <row r="563" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K563" s="1"/>
-    </row>
-    <row r="564" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K564" s="1"/>
-    </row>
-    <row r="565" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K565" s="1"/>
-    </row>
-    <row r="566" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K566" s="1"/>
-    </row>
-    <row r="567" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K567" s="1"/>
-    </row>
-    <row r="568" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K568" s="1"/>
-    </row>
-    <row r="569" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K569" s="1"/>
-    </row>
-    <row r="570" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K570" s="1"/>
-    </row>
-    <row r="571" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K571" s="1"/>
-    </row>
-    <row r="572" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K572" s="1"/>
-    </row>
-    <row r="573" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K573" s="1"/>
-    </row>
-    <row r="574" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K574" s="1"/>
-    </row>
-    <row r="575" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K575" s="1"/>
-    </row>
-    <row r="576" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K576" s="1"/>
-    </row>
-    <row r="577" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K577" s="1"/>
-    </row>
-    <row r="578" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K578" s="1"/>
-    </row>
-    <row r="579" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K579" s="1"/>
-    </row>
-    <row r="580" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K580" s="1"/>
-    </row>
-    <row r="581" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K581" s="1"/>
-    </row>
-    <row r="582" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K582" s="1"/>
-    </row>
-    <row r="583" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K583" s="1"/>
-    </row>
-    <row r="584" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K584" s="1"/>
-    </row>
-    <row r="585" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K585" s="1"/>
-    </row>
-    <row r="586" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K586" s="1"/>
-    </row>
-    <row r="587" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K587" s="1"/>
-    </row>
-    <row r="588" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K588" s="1"/>
-    </row>
-    <row r="589" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K589" s="1"/>
-    </row>
-    <row r="590" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K590" s="1"/>
-    </row>
-    <row r="591" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K591" s="1"/>
-    </row>
-    <row r="592" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K592" s="1"/>
-    </row>
-    <row r="593" spans="10:11" x14ac:dyDescent="0.3">
-      <c r="K593" s="1"/>
-    </row>
-    <row r="594" spans="10:11" x14ac:dyDescent="0.3">
-      <c r="K594" s="1"/>
-    </row>
-    <row r="595" spans="10:11" x14ac:dyDescent="0.3">
-      <c r="K595" s="1"/>
-    </row>
-    <row r="596" spans="10:11" x14ac:dyDescent="0.3">
-      <c r="K596" s="1"/>
-    </row>
-    <row r="597" spans="10:11" x14ac:dyDescent="0.3">
-      <c r="K597" s="1"/>
-    </row>
-    <row r="598" spans="10:11" x14ac:dyDescent="0.3">
-      <c r="K598" s="1"/>
-    </row>
-    <row r="599" spans="10:11" x14ac:dyDescent="0.3">
-      <c r="K599" s="1"/>
-    </row>
-    <row r="600" spans="10:11" x14ac:dyDescent="0.3">
-      <c r="K600" s="1"/>
-    </row>
-    <row r="601" spans="10:11" x14ac:dyDescent="0.3">
-      <c r="K601" s="1"/>
-    </row>
-    <row r="602" spans="10:11" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="J602">
-        <f t="shared" ref="J602:J609" si="2">LEN(I602)</f>
-        <v>0</v>
-      </c>
-      <c r="K602" s="1" t="s">
-        <v>1008</v>
-      </c>
-    </row>
-    <row r="603" spans="10:11" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="J603">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K603" s="1" t="s">
-        <v>1009</v>
-      </c>
-    </row>
-    <row r="604" spans="10:11" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="J604">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K604" s="1" t="s">
-        <v>1010</v>
-      </c>
-    </row>
-    <row r="605" spans="10:11" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="J605">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K605" s="1" t="s">
-        <v>1011</v>
-      </c>
-    </row>
-    <row r="606" spans="10:11" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="J606">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K606" s="1" t="s">
-        <v>1012</v>
-      </c>
-    </row>
-    <row r="607" spans="10:11" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="J607">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K607" s="1" t="s">
-        <v>1013</v>
-      </c>
-    </row>
-    <row r="608" spans="10:11" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="J608">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K608" s="1" t="s">
-        <v>1014</v>
-      </c>
-    </row>
-    <row r="609" spans="10:11" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="J609">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K609" s="1" t="s">
-        <v>1015</v>
       </c>
     </row>
   </sheetData>
